--- a/tools/0_LJW_tools/new_points.xlsx
+++ b/tools/0_LJW_tools/new_points.xlsx
@@ -23,10 +23,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$J$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$C$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$A$1:$J$243</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet7!$A$1:$C$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet7!$A$1:$C$473</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Sheet7 (2)'!$A$1:$C$284</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="549">
   <si>
     <t>new_point_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1903,84 +1904,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>skeleton_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_3_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_3_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_4_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_4_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_3_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4657,7 +4657,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A40" sqref="A40:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9902,17 +9902,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C469"/>
+  <dimension ref="A1:C473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C396" sqref="C396"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9924,7 +9923,7 @@
         <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11101,7 +11100,7 @@
         <v>38</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -11112,7 +11111,7 @@
         <v>41</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -11200,7 +11199,7 @@
         <v>129</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -11211,7 +11210,7 @@
         <v>132</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -13892,7 +13891,7 @@
         <v>478</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C362">
         <v>9</v>
@@ -13903,7 +13902,7 @@
         <v>479</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C363">
         <v>9</v>
@@ -14156,7 +14155,7 @@
         <v>488</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C386">
         <v>9</v>
@@ -14241,7 +14240,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>534</v>
@@ -14252,10 +14251,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C395">
         <v>10</v>
@@ -14709,7 +14708,7 @@
         <v>363</v>
       </c>
       <c r="C436">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -14720,7 +14719,7 @@
         <v>363</v>
       </c>
       <c r="C437">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -14731,7 +14730,7 @@
         <v>175</v>
       </c>
       <c r="C438">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -14742,7 +14741,7 @@
         <v>175</v>
       </c>
       <c r="C439">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -14753,7 +14752,7 @@
         <v>175</v>
       </c>
       <c r="C440">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -14764,7 +14763,7 @@
         <v>175</v>
       </c>
       <c r="C441">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -14775,7 +14774,7 @@
         <v>363</v>
       </c>
       <c r="C442">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -14786,7 +14785,7 @@
         <v>363</v>
       </c>
       <c r="C443">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -14797,7 +14796,7 @@
         <v>386</v>
       </c>
       <c r="C444">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -14808,7 +14807,7 @@
         <v>386</v>
       </c>
       <c r="C445">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -14819,7 +14818,7 @@
         <v>388</v>
       </c>
       <c r="C446">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -14830,7 +14829,7 @@
         <v>388</v>
       </c>
       <c r="C447">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -14841,7 +14840,7 @@
         <v>388</v>
       </c>
       <c r="C448">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -14852,7 +14851,7 @@
         <v>388</v>
       </c>
       <c r="C449">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -14863,7 +14862,7 @@
         <v>386</v>
       </c>
       <c r="C450">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -14874,51 +14873,51 @@
         <v>386</v>
       </c>
       <c r="C451">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B452" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C452">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B453" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C453">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
+        <v>540</v>
+      </c>
+      <c r="B454" t="s">
         <v>541</v>
       </c>
-      <c r="B454" t="s">
-        <v>542</v>
-      </c>
       <c r="C454">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
+        <v>542</v>
+      </c>
+      <c r="B455" t="s">
         <v>543</v>
       </c>
-      <c r="B455" t="s">
-        <v>544</v>
-      </c>
       <c r="C455">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -14929,7 +14928,7 @@
         <v>78</v>
       </c>
       <c r="C456">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -14940,7 +14939,7 @@
         <v>79</v>
       </c>
       <c r="C457">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -14951,7 +14950,7 @@
         <v>76</v>
       </c>
       <c r="C458">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -14962,7 +14961,7 @@
         <v>75</v>
       </c>
       <c r="C459">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -14973,7 +14972,7 @@
         <v>75</v>
       </c>
       <c r="C460">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -14984,99 +14983,143 @@
         <v>78</v>
       </c>
       <c r="C461">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C462">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C463">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C464">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B465" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B465" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="C465">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C466">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C467">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C468">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C469">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C470">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C471">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C472">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C473">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C469">
+  <autoFilter ref="A1:C473">
     <sortState ref="A2:C469">
       <sortCondition ref="C1:C469"/>
     </sortState>

--- a/tools/0_LJW_tools/new_points.xlsx
+++ b/tools/0_LJW_tools/new_points.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="2" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7875" tabRatio="600" firstSheet="2" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,10 +23,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sheet4'!$A$1:$J$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sheet5'!$A$1:$C$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Sheet6'!$A$1:$E$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Sheet7'!$A$1:$C$494</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Sheet7_backup'!$A$1:$C$479</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Sheet8'!$A$1:$D$7</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -7820,9 +7821,9 @@
   </sheetPr>
   <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="A86:C97"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -7862,7 +7863,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -7878,15 +7879,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1_1_sk_6</t>
+          <t>1_1_e_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1_1_10</t>
+          <t>1_1_4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7898,15 +7899,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1_1_sk_7</t>
+          <t>1_1_e_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_1_11</t>
+          <t>1_1_5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -7918,15 +7919,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1_1_sk_8</t>
+          <t>1_1_e_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1_1_12</t>
+          <t>1_1_8</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -7942,7 +7943,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -7962,7 +7963,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -7978,15 +7979,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1_1_e_2</t>
+          <t>1_1_sk_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1_1_4</t>
+          <t>1_1_6</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -7998,15 +7999,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1_1_e_3</t>
+          <t>1_1_sk_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1_1_5</t>
+          <t>1_1_7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -8018,7 +8019,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1_1_sk_3</t>
+          <t>1_1_sk_5</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -8026,7 +8027,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1_1_6</t>
+          <t>1_1_9</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -8038,7 +8039,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1_1_sk_4</t>
+          <t>1_1_sk_6</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -8046,7 +8047,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1_1_7</t>
+          <t>1_1_10</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -8058,15 +8059,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1_1_e_4</t>
+          <t>1_1_sk_7</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1_1_8</t>
+          <t>1_1_11</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -8078,15 +8079,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1_1_sk_5</t>
+          <t>1_1_sk_8</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1_1_9</t>
+          <t>1_1_12</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -8102,7 +8103,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -8118,15 +8119,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1_2_sk_6</t>
+          <t>1_2_e_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1_2_10</t>
+          <t>1_2_4</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -8138,15 +8139,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1_2_sk_7</t>
+          <t>1_2_e_3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1_2_11</t>
+          <t>1_2_5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -8158,15 +8159,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1_2_sk_8</t>
+          <t>1_2_e_4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1_2_12</t>
+          <t>1_2_8</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -8182,7 +8183,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -8202,7 +8203,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -8218,15 +8219,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1_2_e_2</t>
+          <t>1_2_sk_3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1_2_4</t>
+          <t>1_2_6</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -8238,15 +8239,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1_2_e_3</t>
+          <t>1_2_sk_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1_2_5</t>
+          <t>1_2_7</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -8258,7 +8259,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1_2_sk_3</t>
+          <t>1_2_sk_5</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8266,7 +8267,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1_2_6</t>
+          <t>1_2_9</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -8278,7 +8279,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1_2_sk_4</t>
+          <t>1_2_sk_6</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -8286,7 +8287,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1_2_7</t>
+          <t>1_2_10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -8298,15 +8299,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1_2_e_4</t>
+          <t>1_2_sk_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1_2_8</t>
+          <t>1_2_11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -8318,15 +8319,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1_2_sk_5</t>
+          <t>1_2_sk_8</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1_2_9</t>
+          <t>1_2_12</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -8342,7 +8343,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -8358,15 +8359,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1_3_sk_6</t>
+          <t>1_3_e_2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1_3_10</t>
+          <t>1_3_4</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -8378,15 +8379,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1_3_sk_7</t>
+          <t>1_3_e_3</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1_3_11</t>
+          <t>1_3_5</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -8398,15 +8399,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1_3_sk_8</t>
+          <t>1_3_e_4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1_3_12</t>
+          <t>1_3_8</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -8422,7 +8423,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -8442,7 +8443,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -8458,15 +8459,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1_3_e_2</t>
+          <t>1_3_sk_3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1_3_4</t>
+          <t>1_3_6</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -8478,15 +8479,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1_3_e_3</t>
+          <t>1_3_sk_4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1_3_5</t>
+          <t>1_3_7</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -8498,7 +8499,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1_3_sk_3</t>
+          <t>1_3_sk_5</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -8506,7 +8507,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1_3_6</t>
+          <t>1_3_9</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -8518,7 +8519,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1_3_sk_4</t>
+          <t>1_3_sk_6</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -8526,7 +8527,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1_3_7</t>
+          <t>1_3_10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -8538,15 +8539,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1_3_e_4</t>
+          <t>1_3_sk_7</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1_3_8</t>
+          <t>1_3_11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -8558,15 +8559,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1_3_sk_5</t>
+          <t>1_3_sk_8</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1_3_9</t>
+          <t>1_3_12</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -8582,7 +8583,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -8598,15 +8599,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1_4_sk_6</t>
+          <t>1_4_bl_2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1_4_10</t>
+          <t>1_4_4</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -8618,15 +8619,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1_4_sk_7</t>
+          <t>1_4_bl_3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1_4_11</t>
+          <t>1_4_5</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -8638,15 +8639,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1_4_sk_8</t>
+          <t>1_4_bl_4</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1_4_12</t>
+          <t>1_4_8</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -8662,7 +8663,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -8682,7 +8683,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -8698,15 +8699,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1_4_bl_2</t>
+          <t>1_4_sk_3</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1_4_4</t>
+          <t>1_4_6</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -8718,15 +8719,15 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1_4_bl_3</t>
+          <t>1_4_sk_4</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1_4_5</t>
+          <t>1_4_7</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -8738,7 +8739,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1_4_sk_3</t>
+          <t>1_4_sk_5</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -8746,7 +8747,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1_4_6</t>
+          <t>1_4_9</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -8758,7 +8759,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1_4_sk_4</t>
+          <t>1_4_sk_6</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -8766,7 +8767,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1_4_7</t>
+          <t>1_4_10</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8778,15 +8779,15 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1_4_bl_4</t>
+          <t>1_4_sk_7</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1_4_8</t>
+          <t>1_4_11</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -8798,15 +8799,15 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1_4_sk_5</t>
+          <t>1_4_sk_8</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1_4_9</t>
+          <t>1_4_12</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -8822,7 +8823,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -8838,15 +8839,15 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2_1_sk_6</t>
+          <t>2_1_e_2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2_1_10</t>
+          <t>2_1_4</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -8858,15 +8859,15 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2_1_sk_7</t>
+          <t>2_1_e_3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2_1_11</t>
+          <t>2_1_5</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -8878,15 +8879,15 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2_1_sk_8</t>
+          <t>2_1_e_4</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2_1_12</t>
+          <t>2_1_8</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -8902,7 +8903,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -8922,7 +8923,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -8938,15 +8939,15 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2_1_e_2</t>
+          <t>2_1_sk_3</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2_1_4</t>
+          <t>2_1_6</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8958,15 +8959,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2_1_e_3</t>
+          <t>2_1_sk_4</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2_1_5</t>
+          <t>2_1_7</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8978,7 +8979,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2_1_sk_3</t>
+          <t>2_1_sk_5</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -8986,7 +8987,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2_1_6</t>
+          <t>2_1_9</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8998,7 +8999,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2_1_sk_4</t>
+          <t>2_1_sk_6</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -9006,7 +9007,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2_1_7</t>
+          <t>2_1_10</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -9018,15 +9019,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2_1_e_4</t>
+          <t>2_1_sk_7</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2_1_8</t>
+          <t>2_1_11</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -9038,15 +9039,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2_1_sk_5</t>
+          <t>2_1_sk_8</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2_1_9</t>
+          <t>2_1_12</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -9062,7 +9063,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -9078,15 +9079,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2_2_sk_6</t>
+          <t>2_2_e_2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2_2_10</t>
+          <t>2_2_4</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -9098,15 +9099,15 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2_2_sk_7</t>
+          <t>2_2_e_3</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2_2_11</t>
+          <t>2_2_5</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -9118,15 +9119,15 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2_2_sk_8</t>
+          <t>2_2_e_4</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2_2_12</t>
+          <t>2_2_8</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -9142,7 +9143,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -9162,7 +9163,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -9178,15 +9179,15 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2_2_e_2</t>
+          <t>2_2_sk_3</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2_2_4</t>
+          <t>2_2_6</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -9198,15 +9199,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2_2_e_3</t>
+          <t>2_2_sk_4</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2_2_5</t>
+          <t>2_2_7</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -9218,7 +9219,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2_2_sk_3</t>
+          <t>2_2_sk_5</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -9226,7 +9227,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2_2_6</t>
+          <t>2_2_9</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -9238,7 +9239,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2_2_sk_4</t>
+          <t>2_2_sk_6</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -9246,7 +9247,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2_2_7</t>
+          <t>2_2_10</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -9258,15 +9259,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2_2_e_4</t>
+          <t>2_2_sk_7</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2_2_8</t>
+          <t>2_2_11</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -9278,15 +9279,15 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2_2_sk_5</t>
+          <t>2_2_sk_8</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2_2_9</t>
+          <t>2_2_12</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -9302,7 +9303,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9318,15 +9319,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2_3_ssk_6</t>
+          <t>2_3_e_2</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2_3_10</t>
+          <t>2_3_4</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -9338,15 +9339,15 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2_3_ssk_7</t>
+          <t>2_3_e_3</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2_3_11</t>
+          <t>2_3_5</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -9358,15 +9359,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2_3_ssk_8</t>
+          <t>2_3_e_4</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2_3_12</t>
+          <t>2_3_8</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -9382,7 +9383,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9402,7 +9403,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9418,15 +9419,15 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2_3_e_2</t>
+          <t>2_3_ssk_3</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2_3_4</t>
+          <t>2_3_6</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -9438,15 +9439,15 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2_3_e_3</t>
+          <t>2_3_ssk_4</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2_3_5</t>
+          <t>2_3_7</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -9458,7 +9459,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2_3_ssk_3</t>
+          <t>2_3_ssk_5</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -9466,7 +9467,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2_3_6</t>
+          <t>2_3_9</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -9478,7 +9479,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2_3_ssk_4</t>
+          <t>2_3_ssk_6</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -9486,7 +9487,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2_3_7</t>
+          <t>2_3_10</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -9498,15 +9499,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2_3_e_4</t>
+          <t>2_3_ssk_7</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2_3_8</t>
+          <t>2_3_11</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9518,15 +9519,15 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2_3_ssk_5</t>
+          <t>2_3_ssk_8</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2_3_9</t>
+          <t>2_3_12</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -9542,7 +9543,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9563,15 +9564,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2_4_sk_6</t>
+          <t>2_4_bl_2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2_4_10</t>
+          <t>2_4_4</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2_5_10</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -9583,15 +9589,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2_4_sk_7</t>
+          <t>2_4_bl_3</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2_4_11</t>
+          <t>2_4_5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2_5_11</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -9603,15 +9614,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2_4_sk_8</t>
+          <t>2_4_bl_4</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2_4_12</t>
+          <t>2_4_8</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2_5_12</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -9627,7 +9643,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -9647,7 +9663,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -9663,20 +9679,15 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2_4_bl_2</t>
+          <t>2_4_sk_3</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2_4_4</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2_5_10</t>
+          <t>2_4_6</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -9688,20 +9699,15 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2_4_bl_3</t>
+          <t>2_4_sk_4</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2_4_5</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2_5_11</t>
+          <t>2_4_7</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -9713,7 +9719,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2_4_sk_3</t>
+          <t>2_4_sk_5</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -9721,7 +9727,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2_4_6</t>
+          <t>2_4_9</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -9733,7 +9739,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2_4_sk_4</t>
+          <t>2_4_sk_6</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -9741,7 +9747,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2_4_7</t>
+          <t>2_4_10</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -9753,20 +9759,15 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2_4_bl_4</t>
+          <t>2_4_sk_7</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2_4_8</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2_5_12</t>
+          <t>2_4_11</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -9778,15 +9779,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2_4_sk_5</t>
+          <t>2_4_sk_8</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2_4_9</t>
+          <t>2_4_12</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -9798,15 +9799,15 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4_1_e_1</t>
+          <t>3_1_e_1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>4_1_1</t>
+          <t>edgepoint_1_1_</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -9818,15 +9819,15 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>4_1_e_4</t>
+          <t>3_1_e_2</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4_1_10</t>
+          <t>edgepoint_1_2_</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -9838,15 +9839,15 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4_1_sk_5</t>
+          <t>3_1_e_3</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4_1_11</t>
+          <t>edgepoint_1_2_</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -9858,15 +9859,15 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4_1_sk_6</t>
+          <t>3_1_e_4</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4_1_12</t>
+          <t>edgepoint_1_1_</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -9878,15 +9879,15 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4_1_sk_7</t>
+          <t>3_1_sk_1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4_1_13</t>
+          <t>skeletonpoint_1_1_</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -9898,15 +9899,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4_1_sk_8</t>
+          <t>3_1_sk_2</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4_1_14</t>
+          <t>skeletonpoint_1_2_</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9918,15 +9919,15 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4_1_sk_1</t>
+          <t>3_1_sk_3</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4_1_2</t>
+          <t>skeletonpoint_1_3_</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -9938,15 +9939,15 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4_1_sk_2</t>
+          <t>3_1_sk_4</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4_1_3</t>
+          <t>skeletonpoint_1_4_</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9958,7 +9959,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4_1_e_2</t>
+          <t>3_1_sk_5</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -9966,7 +9967,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4_1_4</t>
+          <t>skeletonpoint_1_5_</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9978,7 +9979,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4_1_e_3</t>
+          <t>3_1_sk_6</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -9986,7 +9987,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4_1_7</t>
+          <t>skeletonpoint_1_6_</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9998,15 +9999,15 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>4_1_sk_3</t>
+          <t>3_1_sk_7</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4_1_8</t>
+          <t>skeletonpoint_1_7_</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -10018,15 +10019,15 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>4_1_sk_4</t>
+          <t>3_1_sk_8</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4_1_9</t>
+          <t>skeletonpoint_1_8_</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -10038,15 +10039,15 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4_2_e_1</t>
+          <t>3_2_e_1</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4_2_1</t>
+          <t>edgepoint_2_1_</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -10058,15 +10059,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4_2_sk_8</t>
+          <t>3_2_e_2</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4_2_10</t>
+          <t>edgepoint_2_2_</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -10078,7 +10079,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4_2_sk_1</t>
+          <t>3_2_e_3</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -10086,7 +10087,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4_2_2</t>
+          <t>edgepoint_2_2_</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -10098,7 +10099,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4_2_sk_2</t>
+          <t>3_2_e_4</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -10106,7 +10107,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4_2_3</t>
+          <t>edgepoint_2_1_</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -10118,15 +10119,15 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4_2_sk_3</t>
+          <t>3_2_sk_1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4_2_4</t>
+          <t>skeletonpoint_2_1_</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -10138,15 +10139,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4_2_sk_4</t>
+          <t>3_2_sk_2</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4_2_5</t>
+          <t>skeletonpoint_2_2_</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -10158,15 +10159,15 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4_2_e_4</t>
+          <t>3_2_sk_3</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4_2_6</t>
+          <t>skeletonpoint_2_3_</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -10178,15 +10179,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4_2_sk_5</t>
+          <t>3_2_sk_4</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4_2_7</t>
+          <t>skeletonpoint_2_4_</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10198,15 +10199,15 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>4_2_sk_6</t>
+          <t>3_2_sk_5</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4_2_8</t>
+          <t>skeletonpoint_2_5_</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -10218,15 +10219,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4_2_sk_7</t>
+          <t>3_2_sk_6</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4_2_9</t>
+          <t>skeletonpoint_2_6_</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -10238,15 +10239,15 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4_3_bl_1</t>
+          <t>3_2_sk_7</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4_3_1</t>
+          <t>skeletonpoint_2_7_</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -10258,15 +10259,15 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4_3_sk_6</t>
+          <t>3_2_sk_8</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4_3_10</t>
+          <t>skeletonpoint_2_8_</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -10278,15 +10279,15 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4_3_sk_7</t>
+          <t>3_3_e_1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4_3_11</t>
+          <t>edgepoint_3_1_</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -10298,15 +10299,15 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4_3_sk_8</t>
+          <t>3_3_e_2</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4_3_12</t>
+          <t>edgepoint_3_2_</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -10318,7 +10319,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4_3_sk_1</t>
+          <t>3_3_e_3</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -10326,7 +10327,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4_3_2</t>
+          <t>edgepoint_3_2_</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -10338,7 +10339,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>4_3_sk_2</t>
+          <t>3_3_e_4</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -10346,7 +10347,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4_3_3</t>
+          <t>edgepoint_3_1_</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -10358,15 +10359,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>4_3_bl_2</t>
+          <t>3_3_sk_1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4_3_4</t>
+          <t>skeletonpoint_3_1_</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10378,15 +10379,15 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>4_3_bl_3</t>
+          <t>3_3_sk_2</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4_3_5</t>
+          <t>skeletonpoint_3_2_</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -10398,15 +10399,15 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>4_3_sk_3</t>
+          <t>3_3_sk_3</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4_3_6</t>
+          <t>skeletonpoint_3_3_</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -10418,15 +10419,15 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>4_3_sk_4</t>
+          <t>3_3_sk_4</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4_3_7</t>
+          <t>skeletonpoint_3_4_</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -10438,15 +10439,15 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>4_3_bl_4</t>
+          <t>3_3_sk_5</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4_3_8</t>
+          <t>skeletonpoint_3_5_</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -10458,15 +10459,15 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>4_3_sk_5</t>
+          <t>3_3_sk_6</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>4_3_9</t>
+          <t>skeletonpoint_3_6_</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -10478,15 +10479,15 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>4_4_e_1</t>
+          <t>3_3_sk_7</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4_4_1</t>
+          <t>skeletonpoint_3_7_</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10498,15 +10499,15 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>4_4_sk_6</t>
+          <t>3_3_sk_8</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4_4_10</t>
+          <t>skeletonpoint_3_8_</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -10518,15 +10519,15 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>4_4_sk_7</t>
+          <t>3_4_bl_1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4_4_11</t>
+          <t>bileipoint_4_1_</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10538,15 +10539,15 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>4_4_sk_8</t>
+          <t>3_4_bl_2</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4_4_12</t>
+          <t>bileipoint_4_2_</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10558,15 +10559,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>4_4_sk_1</t>
+          <t>3_4_bl_3</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4_4_2</t>
+          <t>bileipoint_4_2_</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10578,15 +10579,15 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>4_4_sk_2</t>
+          <t>3_4_bl_4</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4_4_3</t>
+          <t>bileipoint_4_1_</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10598,15 +10599,15 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>4_4_e_2</t>
+          <t>3_4_sk_1</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4_4_4</t>
+          <t>skeletonpoint_4_1_</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10618,15 +10619,15 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>4_4_e_3</t>
+          <t>3_4_sk_2</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4_4_5</t>
+          <t>skeletonpoint_4_2_</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10638,15 +10639,15 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>4_4_sk_3</t>
+          <t>3_4_sk_3</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4_4_6</t>
+          <t>skeletonpoint_4_3_</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10658,15 +10659,15 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>4_4_sk_4</t>
+          <t>3_4_sk_4</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4_4_7</t>
+          <t>skeletonpoint_4_4_</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10678,15 +10679,15 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>4_4_e_4</t>
+          <t>3_4_sk_5</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4_4_8</t>
+          <t>skeletonpoint_4_5_</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10698,15 +10699,15 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4_4_sk_5</t>
+          <t>3_4_sk_6</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4_4_9</t>
+          <t>skeletonpoint_4_6_</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10718,15 +10719,15 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>5_1_e_1</t>
+          <t>3_4_sk_7</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>5_1_1</t>
+          <t>skeletonpoint_4_6_</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10738,15 +10739,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>5_1_sk_6</t>
+          <t>3_4_sk_8</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>5_1_10</t>
+          <t>skeletonpoint_4_5_</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10758,15 +10759,15 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>5_1_se_2</t>
+          <t>4_1_e_1</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5_1_11</t>
+          <t>4_1_1</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -10778,15 +10779,15 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5_1_sk_7</t>
+          <t>4_1_e_2</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5_1_12</t>
+          <t>4_1_4</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10798,15 +10799,15 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>5_1_sk_8</t>
+          <t>4_1_e_3</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>5_1_13</t>
+          <t>4_1_7</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -10818,15 +10819,15 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>5_1_e_4</t>
+          <t>4_1_e_4</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5_1_14</t>
+          <t>4_1_10</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10838,15 +10839,15 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>5_1_sk_1</t>
+          <t>4_1_sk_1</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5_1_2</t>
+          <t>4_1_2</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10858,15 +10859,15 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5_1_sk_2</t>
+          <t>4_1_sk_2</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>5_1_3</t>
+          <t>4_1_3</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10878,15 +10879,15 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>5_1_se_1</t>
+          <t>4_1_sk_3</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5_1_4</t>
+          <t>4_1_8</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10898,15 +10899,15 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>5_1_sk_3</t>
+          <t>4_1_sk_4</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5_1_5</t>
+          <t>4_1_9</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10918,15 +10919,15 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>5_1_sk_4</t>
+          <t>4_1_sk_5</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5_1_6</t>
+          <t>4_1_11</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10938,15 +10939,15 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>5_1_e_2</t>
+          <t>4_1_sk_6</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5_1_7</t>
+          <t>4_1_12</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10958,15 +10959,15 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>5_1_e_3</t>
+          <t>4_1_sk_7</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>5_1_8</t>
+          <t>4_1_13</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10978,15 +10979,15 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>5_1_sk_5</t>
+          <t>4_1_sk_8</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5_1_9</t>
+          <t>4_1_14</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10998,15 +10999,15 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>5_2_sk_1</t>
+          <t>4_2_e_1</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>5_2_1</t>
+          <t>4_2_1</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -11018,15 +11019,15 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>5_2_sk_2</t>
+          <t>4_2_e_4</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5_2_2</t>
+          <t>4_2_6</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -11038,7 +11039,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>5_2_sk_3</t>
+          <t>4_2_sk_1</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11046,7 +11047,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5_2_3</t>
+          <t>4_2_2</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -11058,7 +11059,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>5_2_sk_4</t>
+          <t>4_2_sk_2</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11066,7 +11067,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>5_2_4</t>
+          <t>4_2_3</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -11078,7 +11079,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>5_2_sk_5</t>
+          <t>4_2_sk_3</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11086,7 +11087,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5_2_5</t>
+          <t>4_2_4</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -11098,7 +11099,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>5_2_sk_6</t>
+          <t>4_2_sk_4</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11106,7 +11107,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5_2_6</t>
+          <t>4_2_5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -11118,15 +11119,15 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>5_2_sk_7</t>
+          <t>4_2_sk_5</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5_2_7</t>
+          <t>4_2_7</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11138,15 +11139,15 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>5_2_sk_8</t>
+          <t>4_2_sk_6</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>5_2_8</t>
+          <t>4_2_8</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11158,25 +11159,15 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>5_3_bl_1</t>
+          <t>4_2_sk_7</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>5_4_1</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>5_3_2</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>5_3_3</t>
+          <t>4_2_9</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11188,25 +11179,15 @@
     <row r="167" ht="17.25" customHeight="1" s="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>5_3_bl_2</t>
+          <t>4_2_sk_8</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5_4_2</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>5_3_4</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>5_3_4</t>
+          <t>4_2_10</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11218,7 +11199,7 @@
     <row r="168" ht="17.25" customHeight="1" s="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>5_3_bl_3</t>
+          <t>4_3_bl_1</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -11226,17 +11207,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5_4_3</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>5_3_8</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>5_3_9</t>
+          <t>4_3_1</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11248,7 +11219,7 @@
     <row r="169" ht="17.25" customHeight="1" s="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>5_3_bl_4</t>
+          <t>4_3_bl_2</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -11256,17 +11227,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5_4_4</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>5_3_11</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>5_3_10</t>
+          <t>4_3_4</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11278,15 +11239,15 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>6_1_e_3</t>
+          <t>4_3_bl_3</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>6_1_11</t>
+          <t>4_3_5</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11298,15 +11259,15 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>6_1_sk_5</t>
+          <t>4_3_bl_4</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>6_1_12</t>
+          <t>4_3_8</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11318,15 +11279,15 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>6_1_sk_6</t>
+          <t>4_3_sk_1</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>6_1_13</t>
+          <t>4_3_2</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11338,15 +11299,15 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>6_1_se_2</t>
+          <t>4_3_sk_2</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>6_1_14</t>
+          <t>4_3_3</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11358,15 +11319,15 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6_1_sk_7</t>
+          <t>4_3_sk_3</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>6_1_15</t>
+          <t>4_3_6</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11378,15 +11339,15 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>6_1_sk_8</t>
+          <t>4_3_sk_4</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>6_1_16</t>
+          <t>4_3_7</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11398,15 +11359,15 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6_1_e_4</t>
+          <t>4_3_sk_5</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>6_1_17</t>
+          <t>4_3_9</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11418,15 +11379,15 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6_1_e_1</t>
+          <t>4_3_sk_6</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>6_1_2</t>
+          <t>4_3_10</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11438,15 +11399,15 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6_1_sk_1</t>
+          <t>4_3_sk_7</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>6_1_3</t>
+          <t>4_3_11</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11458,15 +11419,15 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6_1_sk_2</t>
+          <t>4_3_sk_8</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>6_1_4</t>
+          <t>4_3_12</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11478,15 +11439,15 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6_1_se_1</t>
+          <t>4_4_e_1</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>6_1_5</t>
+          <t>4_4_1</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11498,15 +11459,15 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6_1_sk_3</t>
+          <t>4_4_e_2</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>6_1_6</t>
+          <t>4_4_4</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11518,7 +11479,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6_1_sk_4</t>
+          <t>4_4_e_3</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -11526,7 +11487,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6_1_7</t>
+          <t>4_4_5</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11538,15 +11499,15 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>6_1_e_2</t>
+          <t>4_4_e_4</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6_1_8</t>
+          <t>4_4_8</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11558,7 +11519,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6_2_sk_1</t>
+          <t>4_4_sk_1</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -11566,7 +11527,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6_2_1</t>
+          <t>4_4_2</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11578,7 +11539,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6_2_sk_2</t>
+          <t>4_4_sk_2</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -11586,7 +11547,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>6_2_2</t>
+          <t>4_4_3</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -11598,15 +11559,15 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>6_2_sk_3</t>
+          <t>4_4_sk_3</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>6_2_3</t>
+          <t>4_4_6</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11618,15 +11579,15 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>6_2_sk_4</t>
+          <t>4_4_sk_4</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>6_2_4</t>
+          <t>4_4_7</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -11638,15 +11599,15 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>6_2_sk_5</t>
+          <t>4_4_sk_5</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6_2_5</t>
+          <t>4_4_9</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -11658,15 +11619,15 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>6_2_sk_6</t>
+          <t>4_4_sk_6</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>6_2_6</t>
+          <t>4_4_10</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -11678,15 +11639,15 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>6_2_sk_7</t>
+          <t>4_4_sk_7</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>6_2_7</t>
+          <t>4_4_11</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11698,15 +11659,15 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>6_2_sk_8</t>
+          <t>4_4_sk_8</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>6_2_8</t>
+          <t>4_4_12</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -11718,15 +11679,15 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6_3_bl_1</t>
+          <t>5_1_e_1</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>6_3_1</t>
+          <t>5_1_1</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -11738,15 +11699,15 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6_3_bl_2</t>
+          <t>5_1_e_2</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6_3_2</t>
+          <t>5_1_7</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11758,15 +11719,15 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>6_3_bl_3</t>
+          <t>5_1_e_3</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>6_3_2</t>
+          <t>5_1_8</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11778,15 +11739,15 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6_3_bl_4</t>
+          <t>5_1_e_4</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>6_3_1</t>
+          <t>5_1_14</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -11798,15 +11759,15 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>3_4_bl_1</t>
+          <t>5_1_se_1</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>bileipoint_4_1_</t>
+          <t>5_1_4</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -11818,7 +11779,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3_4_bl_2</t>
+          <t>5_1_se_2</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -11826,7 +11787,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>bileipoint_4_2_</t>
+          <t>5_1_11</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11838,15 +11799,15 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>3_4_bl_4</t>
+          <t>5_1_sk_1</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>bileipoint_4_1_</t>
+          <t>5_1_2</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11858,15 +11819,15 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3_4_bl_3</t>
+          <t>5_1_sk_2</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>bileipoint_4_2_</t>
+          <t>5_1_3</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11878,15 +11839,15 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>3_1_e_1</t>
+          <t>5_1_sk_3</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>edgepoint_1_1_</t>
+          <t>5_1_5</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -11898,15 +11859,15 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>3_1_e_2</t>
+          <t>5_1_sk_4</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>edgepoint_1_2_</t>
+          <t>5_1_6</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11918,15 +11879,15 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>3_1_e_3</t>
+          <t>5_1_sk_5</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>edgepoint_1_2_</t>
+          <t>5_1_9</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -11938,15 +11899,15 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3_1_e_4</t>
+          <t>5_1_sk_6</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>edgepoint_1_1_</t>
+          <t>5_1_10</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11958,15 +11919,15 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3_2_e_1</t>
+          <t>5_1_sk_7</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>edgepoint_2_1_</t>
+          <t>5_1_12</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11978,15 +11939,15 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>3_2_e_2</t>
+          <t>5_1_sk_8</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>edgepoint_2_2_</t>
+          <t>5_1_13</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11998,15 +11959,15 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>3_2_e_3</t>
+          <t>5_2_sk_1</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>edgepoint_2_2_</t>
+          <t>5_2_1</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -12018,15 +11979,15 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3_2_e_4</t>
+          <t>5_2_sk_2</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>edgepoint_2_1_</t>
+          <t>5_2_2</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12038,15 +11999,15 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>3_3_e_1</t>
+          <t>5_2_sk_3</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>edgepoint_3_1_</t>
+          <t>5_2_3</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12058,15 +12019,15 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>3_3_e_2</t>
+          <t>5_2_sk_4</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>edgepoint_3_2_</t>
+          <t>5_2_4</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -12078,15 +12039,15 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>3_3_e_3</t>
+          <t>5_2_sk_5</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>edgepoint_3_2_</t>
+          <t>5_2_5</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -12098,15 +12059,15 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>3_3_e_4</t>
+          <t>5_2_sk_6</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>edgepoint_3_1_</t>
+          <t>5_2_6</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -12118,15 +12079,15 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>3_1_sk_1</t>
+          <t>5_2_sk_7</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_1_</t>
+          <t>5_2_7</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -12138,15 +12099,15 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>3_1_sk_2</t>
+          <t>5_2_sk_8</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_2_</t>
+          <t>5_2_8</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12158,15 +12119,25 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3_1_sk_3</t>
+          <t>5_3_bl_1</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_3_</t>
+          <t>5_4_1</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>5_3_2</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>5_3_3</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -12178,15 +12149,25 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3_1_sk_4</t>
+          <t>5_3_bl_2</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_4_</t>
+          <t>5_4_2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>5_3_4</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>5_3_4</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12198,15 +12179,25 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>3_1_sk_5</t>
+          <t>5_3_bl_3</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_5_</t>
+          <t>5_4_3</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>5_3_8</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>5_3_9</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -12218,15 +12209,25 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>3_1_sk_6</t>
+          <t>5_3_bl_4</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_6_</t>
+          <t>5_4_4</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>5_3_11</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>5_3_10</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -12238,15 +12239,15 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>3_1_sk_7</t>
+          <t>6_1_e_1</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_7_</t>
+          <t>6_1_2</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12258,15 +12259,15 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>3_1_sk_8</t>
+          <t>6_1_e_2</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_8_</t>
+          <t>6_1_8</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12278,7 +12279,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>3_2_sk_1</t>
+          <t>6_1_e_3</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -12286,7 +12287,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_1_</t>
+          <t>6_1_11</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -12298,7 +12299,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3_2_sk_2</t>
+          <t>6_1_e_4</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -12306,7 +12307,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_2_</t>
+          <t>6_1_17</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12318,15 +12319,15 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>3_2_sk_3</t>
+          <t>6_1_se_1</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_3_</t>
+          <t>6_1_5</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12338,15 +12339,15 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>3_2_sk_4</t>
+          <t>6_1_se_2</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_4_</t>
+          <t>6_1_14</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -12358,7 +12359,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3_2_sk_5</t>
+          <t>6_1_sk_1</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -12366,7 +12367,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_5_</t>
+          <t>6_1_3</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -12378,7 +12379,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>3_2_sk_6</t>
+          <t>6_1_sk_2</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -12386,7 +12387,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_6_</t>
+          <t>6_1_4</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12398,15 +12399,15 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>3_2_sk_7</t>
+          <t>6_1_sk_3</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_7_</t>
+          <t>6_1_6</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12418,15 +12419,15 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>3_2_sk_8</t>
+          <t>6_1_sk_4</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_8_</t>
+          <t>6_1_7</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12438,15 +12439,15 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3_3_sk_1</t>
+          <t>6_1_sk_5</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_1_</t>
+          <t>6_1_12</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12458,15 +12459,15 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>3_3_sk_2</t>
+          <t>6_1_sk_6</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_2_</t>
+          <t>6_1_13</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -12478,15 +12479,15 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>3_3_sk_3</t>
+          <t>6_1_sk_7</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_3_</t>
+          <t>6_1_15</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -12498,15 +12499,15 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>3_3_sk_4</t>
+          <t>6_1_sk_8</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_4_</t>
+          <t>6_1_16</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12518,15 +12519,15 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>3_3_sk_5</t>
+          <t>6_2_sk_1</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_5_</t>
+          <t>6_2_1</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12538,15 +12539,15 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>3_3_sk_6</t>
+          <t>6_2_sk_2</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_6_</t>
+          <t>6_2_2</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12558,15 +12559,15 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>3_3_sk_7</t>
+          <t>6_2_sk_3</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_7_</t>
+          <t>6_2_3</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12578,15 +12579,15 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>3_3_sk_8</t>
+          <t>6_2_sk_4</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_8_</t>
+          <t>6_2_4</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12598,15 +12599,15 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>3_4_sk_1</t>
+          <t>6_2_sk_5</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_1_</t>
+          <t>6_2_5</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12618,15 +12619,15 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>3_4_sk_2</t>
+          <t>6_2_sk_6</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_2_</t>
+          <t>6_2_6</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12638,15 +12639,15 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>3_4_sk_3</t>
+          <t>6_2_sk_7</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_3_</t>
+          <t>6_2_7</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12658,15 +12659,15 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>3_4_sk_4</t>
+          <t>6_2_sk_8</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_4_</t>
+          <t>6_2_8</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12678,15 +12679,15 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>3_4_sk_5</t>
+          <t>6_3_bl_1</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_5_</t>
+          <t>6_3_1</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12698,15 +12699,15 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>3_4_sk_6</t>
+          <t>6_3_bl_2</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_6_</t>
+          <t>6_3_2</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12718,15 +12719,15 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>3_4_sk_7</t>
+          <t>6_3_bl_3</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_6_</t>
+          <t>6_3_2</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12738,15 +12739,15 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>3_4_sk_8</t>
+          <t>6_3_bl_4</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_5_</t>
+          <t>6_3_1</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12756,7 +12757,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E243"/>
+  <autoFilter ref="A1:E243">
+    <sortState ref="A2:E243">
+      <sortCondition ref="A1:A243"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
@@ -12770,11 +12775,16 @@
   </sheetPr>
   <dimension ref="A1:C494"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="9.125" bestFit="1" customWidth="1" style="1" min="1" max="2"/>
+    <col width="14.875" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -19186,7 +19196,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>1_4_sk_5</t>
+          <t>1_4_sk_6</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -19216,7 +19226,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2_4_sk_5</t>
+          <t>2_4_sk_6</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -19246,7 +19256,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>3_4_sk_5</t>
+          <t>3_4_sk_6</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -19276,7 +19286,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>4_3_sk_5</t>
+          <t>4_3_sk_6</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -20106,7 +20116,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2_3_e_1</t>
+          <t>2_3_ssk_1</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -20189,7 +20199,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C494"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 

--- a/tools/0_LJW_tools/new_points.xlsx
+++ b/tools/0_LJW_tools/new_points.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7875" tabRatio="600" firstSheet="2" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7875" tabRatio="600" firstSheet="2" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet3'!$A$1:$C$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sheet4'!$A$1:$J$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sheet5'!$A$1:$C$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Sheet6'!$A$1:$E$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Sheet6'!$A$1:$E$245</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Sheet7'!$A$1:$C$494</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Sheet7_backup'!$A$1:$C$479</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Sheet8'!$A$1:$D$7</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -7819,11 +7819,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J243"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N142" sqref="M142:N142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -11016,830 +11016,810 @@
         </is>
       </c>
     </row>
-    <row r="159">
+    <row r="159" s="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>4_2_e_4</t>
+          <t>4_2_e_2</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>4_2_6</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>5_2_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" s="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>4_2_sk_1</t>
+          <t>4_2_e_3</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>4_2_2</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>5_2_3</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>4_2_sk_2</t>
+          <t>4_2_e_4</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>4_2_3</t>
+          <t>4_2_6</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>5_2_4</t>
+          <t>5_2_2</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4_2_sk_3</t>
+          <t>4_2_sk_1</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>4_2_4</t>
+          <t>4_2_2</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>5_2_5</t>
+          <t>5_2_3</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4_2_sk_4</t>
+          <t>4_2_sk_2</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>4_2_5</t>
+          <t>4_2_3</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>5_2_6</t>
+          <t>5_2_4</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>4_2_sk_5</t>
+          <t>4_2_sk_3</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>4_2_7</t>
+          <t>4_2_4</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>5_2_7</t>
+          <t>5_2_5</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>4_2_sk_6</t>
+          <t>4_2_sk_4</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4_2_8</t>
+          <t>4_2_5</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>5_2_8</t>
+          <t>5_2_6</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>4_2_sk_5</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>4</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4_2_7</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>5_2_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>4_2_sk_6</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>4_2_8</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>5_2_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
           <t>4_2_sk_7</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B168" t="n">
         <v>6</v>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>4_2_9</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>5_3_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="167" ht="17.25" customHeight="1" s="1">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>4_2_sk_8</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>6</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>4_2_10</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>5_3_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="168" ht="17.25" customHeight="1" s="1">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>4_3_bl_1</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>9</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>4_3_1</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>5_3_3</t>
         </is>
       </c>
     </row>
     <row r="169" ht="17.25" customHeight="1" s="1">
       <c r="A169" t="inlineStr">
         <is>
+          <t>4_2_sk_8</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>6</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4_2_10</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>5_3_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="17.25" customHeight="1" s="1">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>4_3_bl_1</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>9</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4_3_1</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>5_3_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="17.25" customHeight="1" s="1">
+      <c r="A171" t="inlineStr">
+        <is>
           <t>4_3_bl_2</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B171" t="n">
         <v>9</v>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>4_3_4</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>5_3_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>4_3_bl_3</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>10</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>4_3_5</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>6_1_11</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>4_3_bl_4</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>10</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>4_3_8</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>6_1_12</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>4_3_sk_1</t>
+          <t>4_3_bl_3</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4_3_2</t>
+          <t>4_3_5</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>6_1_13</t>
+          <t>6_1_11</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>4_3_sk_2</t>
+          <t>4_3_bl_4</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4_3_3</t>
+          <t>4_3_8</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>6_1_14</t>
+          <t>6_1_12</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>4_3_sk_3</t>
+          <t>4_3_sk_1</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4_3_6</t>
+          <t>4_3_2</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>6_1_15</t>
+          <t>6_1_13</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>4_3_sk_4</t>
+          <t>4_3_sk_2</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>4_3_7</t>
+          <t>4_3_3</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>6_1_16</t>
+          <t>6_1_14</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>4_3_sk_5</t>
+          <t>4_3_sk_3</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4_3_9</t>
+          <t>4_3_6</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>6_1_17</t>
+          <t>6_1_15</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>4_3_sk_6</t>
+          <t>4_3_sk_4</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4_3_10</t>
+          <t>4_3_7</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>6_1_2</t>
+          <t>6_1_16</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>4_3_sk_7</t>
+          <t>4_3_sk_5</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>4_3_11</t>
+          <t>4_3_9</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>6_1_3</t>
+          <t>6_1_17</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>4_3_sk_8</t>
+          <t>4_3_sk_6</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>4_3_12</t>
+          <t>4_3_10</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>6_1_4</t>
+          <t>6_1_2</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>4_4_e_1</t>
+          <t>4_3_sk_7</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4_4_1</t>
+          <t>4_3_11</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>6_1_5</t>
+          <t>6_1_3</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>4_4_e_2</t>
+          <t>4_3_sk_8</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>4_4_4</t>
+          <t>4_3_12</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>6_1_6</t>
+          <t>6_1_4</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>4_4_e_3</t>
+          <t>4_4_e_1</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>4_4_5</t>
+          <t>4_4_1</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>6_1_7</t>
+          <t>6_1_5</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>4_4_e_4</t>
+          <t>4_4_e_2</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4_4_8</t>
+          <t>4_4_4</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>6_1_8</t>
+          <t>6_1_6</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>4_4_sk_1</t>
+          <t>4_4_e_3</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>4_4_2</t>
+          <t>4_4_5</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>6_2_1</t>
+          <t>6_1_7</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>4_4_sk_2</t>
+          <t>4_4_e_4</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>4_4_3</t>
+          <t>4_4_8</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>6_2_2</t>
+          <t>6_1_8</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>4_4_sk_3</t>
+          <t>4_4_sk_1</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>4_4_6</t>
+          <t>4_4_2</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>6_2_3</t>
+          <t>6_2_1</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>4_4_sk_4</t>
+          <t>4_4_sk_2</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>4_4_7</t>
+          <t>4_4_3</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>6_2_4</t>
+          <t>6_2_2</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>4_4_sk_5</t>
+          <t>4_4_sk_3</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4_4_9</t>
+          <t>4_4_6</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>6_2_5</t>
+          <t>6_2_3</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>4_4_sk_6</t>
+          <t>4_4_sk_4</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>4_4_10</t>
+          <t>4_4_7</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>6_2_6</t>
+          <t>6_2_4</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>4_4_sk_7</t>
+          <t>4_4_sk_5</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>4_4_11</t>
+          <t>4_4_9</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>6_2_7</t>
+          <t>6_2_5</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>4_4_sk_8</t>
+          <t>4_4_sk_6</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>4_4_12</t>
+          <t>4_4_10</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>6_2_8</t>
+          <t>6_2_6</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>5_1_e_1</t>
+          <t>4_4_sk_7</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>5_1_1</t>
+          <t>4_4_11</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>6_3_1</t>
+          <t>6_2_7</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>5_1_e_2</t>
+          <t>4_4_sk_8</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>5_1_7</t>
+          <t>4_4_12</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>6_3_2</t>
+          <t>6_2_8</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>5_1_e_3</t>
+          <t>5_1_e_1</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>5_1_8</t>
+          <t>5_1_1</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>6_3_3</t>
+          <t>6_3_1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>5_1_e_4</t>
+          <t>5_1_e_2</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>5_1_14</t>
+          <t>5_1_7</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>6_3_4</t>
+          <t>6_3_2</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>5_1_se_1</t>
+          <t>5_1_e_3</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>5_1_4</t>
+          <t>5_1_8</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>bileipoint_4_1</t>
+          <t>6_3_3</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>5_1_se_2</t>
+          <t>5_1_e_4</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>5_1_11</t>
+          <t>5_1_14</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>bileipoint_4_2</t>
+          <t>6_3_4</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>5_1_sk_1</t>
+          <t>5_1_se_1</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>5_1_2</t>
+          <t>5_1_4</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>bileipoint_4_4</t>
+          <t>bileipoint_4_1</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>5_1_sk_2</t>
+          <t>5_1_se_2</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>5_1_3</t>
+          <t>5_1_11</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>bileipoint_4_3</t>
+          <t>bileipoint_4_2</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>5_1_sk_3</t>
+          <t>5_1_sk_1</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -11847,19 +11827,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>5_1_5</t>
+          <t>5_1_2</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>edgepoint_1_1</t>
+          <t>bileipoint_4_4</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>5_1_sk_4</t>
+          <t>5_1_sk_2</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -11867,59 +11847,59 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>5_1_6</t>
+          <t>5_1_3</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>edgepoint_1_2</t>
+          <t>bileipoint_4_3</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>5_1_sk_5</t>
+          <t>5_1_sk_3</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>5_1_9</t>
+          <t>5_1_5</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>edgepoint_1_3</t>
+          <t>edgepoint_1_1</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>5_1_sk_6</t>
+          <t>5_1_sk_4</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>5_1_10</t>
+          <t>5_1_6</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>edgepoint_1_4</t>
+          <t>edgepoint_1_2</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>5_1_sk_7</t>
+          <t>5_1_sk_5</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -11927,19 +11907,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>5_1_12</t>
+          <t>5_1_9</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>edgepoint_2_1</t>
+          <t>edgepoint_1_3</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>5_1_sk_8</t>
+          <t>5_1_sk_6</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -11947,59 +11927,59 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>5_1_13</t>
+          <t>5_1_10</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>edgepoint_2_2</t>
+          <t>edgepoint_1_4</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>5_2_sk_1</t>
+          <t>5_1_sk_7</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>5_2_1</t>
+          <t>5_1_12</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>edgepoint_2_3</t>
+          <t>edgepoint_2_1</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>5_2_sk_2</t>
+          <t>5_1_sk_8</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>5_2_2</t>
+          <t>5_1_13</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>edgepoint_2_4</t>
+          <t>edgepoint_2_2</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>5_2_sk_3</t>
+          <t>5_2_sk_1</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -12007,19 +11987,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>5_2_3</t>
+          <t>5_2_1</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>edgepoint_3_1</t>
+          <t>edgepoint_2_3</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>5_2_sk_4</t>
+          <t>5_2_sk_2</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -12027,59 +12007,59 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>5_2_4</t>
+          <t>5_2_2</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>edgepoint_3_2</t>
+          <t>edgepoint_2_4</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>5_2_sk_5</t>
+          <t>5_2_sk_3</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>5_2_5</t>
+          <t>5_2_3</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>edgepoint_3_3</t>
+          <t>edgepoint_3_1</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>5_2_sk_6</t>
+          <t>5_2_sk_4</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>5_2_6</t>
+          <t>5_2_4</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>edgepoint_3_4</t>
+          <t>edgepoint_3_2</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>5_2_sk_7</t>
+          <t>5_2_sk_5</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -12087,19 +12067,19 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>5_2_7</t>
+          <t>5_2_5</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_1</t>
+          <t>edgepoint_3_3</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>5_2_sk_8</t>
+          <t>5_2_sk_6</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -12107,299 +12087,299 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>5_2_8</t>
+          <t>5_2_6</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_2</t>
+          <t>edgepoint_3_4</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>5_3_bl_1</t>
+          <t>5_2_sk_7</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>5_4_1</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>5_3_2</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>5_3_3</t>
+          <t>5_2_7</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_3</t>
+          <t>skeletonpoint_1_1</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>5_3_bl_2</t>
+          <t>5_2_sk_8</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>5_4_2</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>5_3_4</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>5_3_4</t>
+          <t>5_2_8</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_4</t>
+          <t>skeletonpoint_1_2</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>5_3_bl_3</t>
+          <t>5_3_bl_1</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>5_4_3</t>
+          <t>5_4_1</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>5_3_8</t>
+          <t>5_3_2</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>5_3_9</t>
+          <t>5_3_3</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_5</t>
+          <t>skeletonpoint_1_3</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>5_3_bl_4</t>
+          <t>5_3_bl_2</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>5_4_4</t>
+          <t>5_4_2</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>5_3_11</t>
+          <t>5_3_4</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>5_3_10</t>
+          <t>5_3_4</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_6</t>
+          <t>skeletonpoint_1_4</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>6_1_e_1</t>
+          <t>5_3_bl_3</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>6_1_2</t>
+          <t>5_4_3</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>5_3_8</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>5_3_9</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_7</t>
+          <t>skeletonpoint_1_5</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6_1_e_2</t>
+          <t>5_3_bl_4</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>6_1_8</t>
+          <t>5_4_4</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>5_3_11</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>5_3_10</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>skeletonpoint_1_8</t>
+          <t>skeletonpoint_1_6</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6_1_e_3</t>
+          <t>6_1_e_1</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>6_1_11</t>
+          <t>6_1_2</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_1</t>
+          <t>skeletonpoint_1_7</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>6_1_e_4</t>
+          <t>6_1_e_2</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>6_1_17</t>
+          <t>6_1_8</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_2</t>
+          <t>skeletonpoint_1_8</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6_1_se_1</t>
+          <t>6_1_e_3</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>6_1_5</t>
+          <t>6_1_11</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_3</t>
+          <t>skeletonpoint_2_1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6_1_se_2</t>
+          <t>6_1_e_4</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>6_1_14</t>
+          <t>6_1_17</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_4</t>
+          <t>skeletonpoint_2_2</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>6_1_sk_1</t>
+          <t>6_1_se_1</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>6_1_3</t>
+          <t>6_1_5</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_5</t>
+          <t>skeletonpoint_2_3</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>6_1_sk_2</t>
+          <t>6_1_se_2</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>6_1_4</t>
+          <t>6_1_14</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_6</t>
+          <t>skeletonpoint_2_4</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>6_1_sk_3</t>
+          <t>6_1_sk_1</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -12407,19 +12387,19 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>6_1_6</t>
+          <t>6_1_3</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_7</t>
+          <t>skeletonpoint_2_5</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>6_1_sk_4</t>
+          <t>6_1_sk_2</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -12427,59 +12407,59 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>6_1_7</t>
+          <t>6_1_4</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>skeletonpoint_2_8</t>
+          <t>skeletonpoint_2_6</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6_1_sk_5</t>
+          <t>6_1_sk_3</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>6_1_12</t>
+          <t>6_1_6</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_1</t>
+          <t>skeletonpoint_2_7</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6_1_sk_6</t>
+          <t>6_1_sk_4</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>6_1_13</t>
+          <t>6_1_7</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_2</t>
+          <t>skeletonpoint_2_8</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6_1_sk_7</t>
+          <t>6_1_sk_5</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -12487,19 +12467,19 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>6_1_15</t>
+          <t>6_1_12</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_3</t>
+          <t>skeletonpoint_3_1</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6_1_sk_8</t>
+          <t>6_1_sk_6</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -12507,59 +12487,59 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>6_1_16</t>
+          <t>6_1_13</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_4</t>
+          <t>skeletonpoint_3_2</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>6_2_sk_1</t>
+          <t>6_1_sk_7</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>6_2_1</t>
+          <t>6_1_15</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_5</t>
+          <t>skeletonpoint_3_3</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6_2_sk_2</t>
+          <t>6_1_sk_8</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>6_2_2</t>
+          <t>6_1_16</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_6</t>
+          <t>skeletonpoint_3_4</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6_2_sk_3</t>
+          <t>6_2_sk_1</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -12567,19 +12547,19 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>6_2_3</t>
+          <t>6_2_1</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_7</t>
+          <t>skeletonpoint_3_5</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>6_2_sk_4</t>
+          <t>6_2_sk_2</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -12587,59 +12567,59 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>6_2_4</t>
+          <t>6_2_2</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>skeletonpoint_3_8</t>
+          <t>skeletonpoint_3_6</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6_2_sk_5</t>
+          <t>6_2_sk_3</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>6_2_5</t>
+          <t>6_2_3</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_1</t>
+          <t>skeletonpoint_3_7</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>6_2_sk_6</t>
+          <t>6_2_sk_4</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>6_2_6</t>
+          <t>6_2_4</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_2</t>
+          <t>skeletonpoint_3_8</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6_2_sk_7</t>
+          <t>6_2_sk_5</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -12647,19 +12627,19 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>6_2_7</t>
+          <t>6_2_5</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_3</t>
+          <t>skeletonpoint_4_1</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6_2_sk_8</t>
+          <t>6_2_sk_6</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -12667,97 +12647,137 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>6_2_8</t>
+          <t>6_2_6</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_4</t>
+          <t>skeletonpoint_4_2</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>6_3_bl_1</t>
+          <t>6_2_sk_7</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>6_3_1</t>
+          <t>6_2_7</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_5</t>
+          <t>skeletonpoint_4_3</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6_3_bl_2</t>
+          <t>6_2_sk_8</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>6_3_2</t>
+          <t>6_2_8</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_6</t>
+          <t>skeletonpoint_4_4</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6_3_bl_3</t>
+          <t>6_3_bl_1</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>6_3_2</t>
+          <t>6_3_1</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>skeletonpoint_4_7</t>
+          <t>skeletonpoint_4_5</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t>6_3_bl_2</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>9</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>6_3_2</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>skeletonpoint_4_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>6_3_bl_3</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>10</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>6_3_2</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>skeletonpoint_4_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
           <t>6_3_bl_4</t>
         </is>
       </c>
-      <c r="B243" t="n">
+      <c r="B245" t="n">
         <v>10</v>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>6_3_1</t>
         </is>
       </c>
-      <c r="J243" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>skeletonpoint_4_8</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E243">
+  <autoFilter ref="A1:E245">
     <sortState ref="A2:E243">
       <sortCondition ref="A1:A243"/>
     </sortState>
@@ -12773,9 +12793,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C494"/>
+  <dimension ref="A1:C499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
@@ -13121,12 +13141,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5_1_sk_1</t>
+          <t>4_2_sk_2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5_1_e_1</t>
+          <t>4_2_e_2</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -13136,12 +13156,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5_1_sk_4</t>
+          <t>5_1_sk_1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5_1_e_2</t>
+          <t>5_1_e_1</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -13151,12 +13171,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6_1_sk_1</t>
+          <t>5_1_sk_4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6_1_e_1</t>
+          <t>5_1_e_2</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -13166,12 +13186,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6_1_sk_4</t>
+          <t>6_1_sk_1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6_1_e_2</t>
+          <t>6_1_e_1</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -13181,27 +13201,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1_1_sk_3</t>
+          <t>6_1_sk_4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1_1_e_3</t>
+          <t>6_1_e_2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1_1_sk_4</t>
+          <t>1_1_sk_3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1_1_e_4</t>
+          <t>1_1_e_3</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -13211,12 +13231,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1_2_sk_3</t>
+          <t>1_1_sk_4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1_2_e_3</t>
+          <t>1_1_e_4</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -13226,12 +13246,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1_2_sk_4</t>
+          <t>1_2_sk_3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1_2_e_4</t>
+          <t>1_2_e_3</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -13241,12 +13261,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1_3_sk_3</t>
+          <t>1_2_sk_4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1_3_e_3</t>
+          <t>1_2_e_4</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -13256,12 +13276,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1_3_sk_4</t>
+          <t>1_3_sk_3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1_3_e_4</t>
+          <t>1_3_e_3</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -13271,12 +13291,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2_1_sk_3</t>
+          <t>1_3_sk_4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2_1_e_3</t>
+          <t>1_3_e_4</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -13286,12 +13306,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2_1_sk_4</t>
+          <t>2_1_sk_3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2_1_e_4</t>
+          <t>2_1_e_3</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -13301,12 +13321,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2_2_sk_3</t>
+          <t>2_1_sk_4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2_2_e_3</t>
+          <t>2_1_e_4</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -13316,12 +13336,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2_2_sk_4</t>
+          <t>2_2_sk_3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2_2_e_4</t>
+          <t>2_2_e_3</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -13331,12 +13351,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3_1_sk_3</t>
+          <t>2_2_sk_4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3_1_e_3</t>
+          <t>2_2_e_4</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -13346,12 +13366,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3_1_sk_4</t>
+          <t>3_1_sk_3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3_1_e_4</t>
+          <t>3_1_e_3</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -13361,12 +13381,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3_2_sk_3</t>
+          <t>3_1_sk_4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3_2_e_3</t>
+          <t>3_1_e_4</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -13376,12 +13396,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3_2_sk_4</t>
+          <t>3_2_sk_3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3_2_e_4</t>
+          <t>3_2_e_3</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -13391,12 +13411,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3_3_sk_3</t>
+          <t>3_2_sk_4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3_3_e_3</t>
+          <t>3_2_e_4</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -13406,12 +13426,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3_3_sk_4</t>
+          <t>3_3_sk_3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3_3_e_4</t>
+          <t>3_3_e_3</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -13421,12 +13441,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4_1_sk_3</t>
+          <t>3_3_sk_4</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4_1_e_3</t>
+          <t>3_3_e_4</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -13436,12 +13456,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4_1_sk_4</t>
+          <t>4_1_sk_3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4_1_e_4</t>
+          <t>4_1_e_3</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -13451,12 +13471,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4_4_sk_3</t>
+          <t>4_1_sk_4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4_4_e_3</t>
+          <t>4_1_e_4</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -13466,12 +13486,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4_4_sk_4</t>
+          <t>4_4_sk_3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4_4_e_4</t>
+          <t>4_4_e_3</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -13481,12 +13501,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4_2_sk_4</t>
+          <t>4_4_sk_4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4_2_e_4</t>
+          <t>4_4_e_4</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -13496,12 +13516,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5_1_sk_5</t>
+          <t>4_2_sk_3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5_1_e_3</t>
+          <t>4_2_e_3</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -13511,12 +13531,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5_1_sk_8</t>
+          <t>4_2_sk_4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5_1_e_4</t>
+          <t>4_2_e_4</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -13526,12 +13546,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6_1_sk_5</t>
+          <t>5_1_sk_5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6_1_e_3</t>
+          <t>5_1_e_3</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -13541,12 +13561,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6_1_sk_8</t>
+          <t>5_1_sk_8</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6_1_e_4</t>
+          <t>5_1_e_4</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -13556,42 +13576,42 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1_1_sk_5</t>
+          <t>6_1_sk_5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1_1_e_1</t>
+          <t>6_1_e_3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1_1_sk_6</t>
+          <t>6_1_sk_8</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1_1_e_2</t>
+          <t>6_1_e_4</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1_2_sk_5</t>
+          <t>1_1_sk_5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1_2_e_1</t>
+          <t>1_1_e_1</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -13601,12 +13621,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1_2_sk_6</t>
+          <t>1_1_sk_6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1_2_e_2</t>
+          <t>1_1_e_2</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -13616,12 +13636,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1_3_sk_5</t>
+          <t>1_2_sk_5</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1_3_e_1</t>
+          <t>1_2_e_1</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -13631,12 +13651,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1_3_sk_6</t>
+          <t>1_2_sk_6</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1_3_e_2</t>
+          <t>1_2_e_2</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -13646,12 +13666,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2_1_sk_5</t>
+          <t>1_3_sk_5</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2_1_e_1</t>
+          <t>1_3_e_1</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -13661,12 +13681,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2_1_sk_6</t>
+          <t>1_3_sk_6</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2_1_e_2</t>
+          <t>1_3_e_2</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -13676,12 +13696,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2_2_sk_5</t>
+          <t>2_1_sk_5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2_2_e_1</t>
+          <t>2_1_e_1</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -13691,12 +13711,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2_2_sk_6</t>
+          <t>2_1_sk_6</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2_2_e_2</t>
+          <t>2_1_e_2</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -13706,12 +13726,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3_1_sk_5</t>
+          <t>2_2_sk_5</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3_1_e_1</t>
+          <t>2_2_e_1</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -13721,12 +13741,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3_1_sk_6</t>
+          <t>2_2_sk_6</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3_1_e_2</t>
+          <t>2_2_e_2</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -13736,12 +13756,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3_2_sk_5</t>
+          <t>3_1_sk_5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3_2_e_1</t>
+          <t>3_1_e_1</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -13751,12 +13771,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3_2_sk_6</t>
+          <t>3_1_sk_6</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3_2_e_2</t>
+          <t>3_1_e_2</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -13766,12 +13786,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3_3_sk_5</t>
+          <t>3_2_sk_5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3_3_e_1</t>
+          <t>3_2_e_1</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -13781,12 +13801,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3_3_sk_6</t>
+          <t>3_2_sk_6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3_3_e_2</t>
+          <t>3_2_e_2</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -13796,12 +13816,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4_1_sk_5</t>
+          <t>3_3_sk_5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4_1_e_1</t>
+          <t>3_3_e_1</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -13811,12 +13831,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4_1_sk_6</t>
+          <t>3_3_sk_6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4_1_e_2</t>
+          <t>3_3_e_2</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -13826,12 +13846,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4_4_sk_5</t>
+          <t>4_1_sk_5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4_4_e_1</t>
+          <t>4_1_e_1</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -13841,12 +13861,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4_4_sk_6</t>
+          <t>4_1_sk_6</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4_4_e_2</t>
+          <t>4_1_e_2</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -13856,12 +13876,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4_2_sk_5</t>
+          <t>4_4_sk_5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4_2_e_1</t>
+          <t>4_4_e_1</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -13871,12 +13891,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5_2_sk_1</t>
+          <t>4_4_sk_6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5_1_e_1</t>
+          <t>4_4_e_2</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -13886,12 +13906,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5_2_sk_4</t>
+          <t>4_2_sk_5</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5_1_e_2</t>
+          <t>4_2_e_1</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -13901,12 +13921,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6_2_sk_1</t>
+          <t>4_2_sk_6</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6_1_e_1</t>
+          <t>4_2_e_2</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -13916,12 +13936,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6_2_sk_4</t>
+          <t>5_2_sk_1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6_1_e_2</t>
+          <t>5_1_e_1</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -13931,57 +13951,57 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1_1_sk_7</t>
+          <t>5_2_sk_4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1_1_e_3</t>
+          <t>5_1_e_2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1_1_sk_8</t>
+          <t>6_2_sk_1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1_1_e_4</t>
+          <t>6_1_e_1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1_2_sk_7</t>
+          <t>6_2_sk_4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1_2_e_3</t>
+          <t>6_1_e_2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1_2_sk_8</t>
+          <t>1_1_sk_7</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1_2_e_4</t>
+          <t>1_1_e_3</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -13991,12 +14011,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1_3_sk_7</t>
+          <t>1_1_sk_8</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1_3_e_3</t>
+          <t>1_1_e_4</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -14006,12 +14026,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1_3_sk_8</t>
+          <t>1_2_sk_7</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1_3_e_4</t>
+          <t>1_2_e_3</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -14021,12 +14041,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2_1_sk_7</t>
+          <t>1_2_sk_8</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2_1_e_3</t>
+          <t>1_2_e_4</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -14036,12 +14056,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2_1_sk_8</t>
+          <t>1_3_sk_7</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2_1_e_4</t>
+          <t>1_3_e_3</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -14051,12 +14071,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2_2_sk_7</t>
+          <t>1_3_sk_8</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2_2_e_3</t>
+          <t>1_3_e_4</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -14066,12 +14086,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2_2_sk_8</t>
+          <t>2_1_sk_7</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2_2_e_4</t>
+          <t>2_1_e_3</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -14081,12 +14101,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3_1_sk_7</t>
+          <t>2_1_sk_8</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3_1_e_3</t>
+          <t>2_1_e_4</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -14096,12 +14116,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3_1_sk_8</t>
+          <t>2_2_sk_7</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3_1_e_4</t>
+          <t>2_2_e_3</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -14111,12 +14131,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3_2_sk_7</t>
+          <t>2_2_sk_8</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3_2_e_3</t>
+          <t>2_2_e_4</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -14126,12 +14146,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3_2_sk_8</t>
+          <t>3_1_sk_7</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3_2_e_4</t>
+          <t>3_1_e_3</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -14141,12 +14161,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3_3_sk_7</t>
+          <t>3_1_sk_8</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3_3_e_3</t>
+          <t>3_1_e_4</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -14156,12 +14176,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3_3_sk_8</t>
+          <t>3_2_sk_7</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3_3_e_4</t>
+          <t>3_2_e_3</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -14171,12 +14191,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4_1_sk_7</t>
+          <t>3_2_sk_8</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4_1_e_3</t>
+          <t>3_2_e_4</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -14186,12 +14206,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4_1_sk_8</t>
+          <t>3_3_sk_7</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4_1_e_4</t>
+          <t>3_3_e_3</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -14201,12 +14221,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4_4_sk_7</t>
+          <t>3_3_sk_8</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4_4_e_3</t>
+          <t>3_3_e_4</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -14216,12 +14236,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4_4_sk_8</t>
+          <t>4_1_sk_7</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4_4_e_4</t>
+          <t>4_1_e_3</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -14231,12 +14251,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4_2_sk_8</t>
+          <t>4_1_sk_8</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4_2_e_4</t>
+          <t>4_1_e_4</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -14246,12 +14266,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5_2_sk_5</t>
+          <t>4_4_sk_7</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5_1_e_3</t>
+          <t>4_4_e_3</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -14261,12 +14281,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5_2_sk_8</t>
+          <t>4_4_sk_8</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5_1_e_4</t>
+          <t>4_4_e_4</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -14276,12 +14296,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6_2_sk_5</t>
+          <t>4_2_sk_7</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6_1_e_3</t>
+          <t>4_2_e_3</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -14291,12 +14311,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6_2_sk_8</t>
+          <t>4_2_sk_8</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>6_1_e_4</t>
+          <t>4_2_e_4</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -14306,72 +14326,72 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1_1_e_4</t>
+          <t>5_2_sk_5</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1_1_e_1</t>
+          <t>5_1_e_3</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1_1_e_3</t>
+          <t>5_2_sk_8</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1_1_e_2</t>
+          <t>5_1_e_4</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1_2_e_4</t>
+          <t>6_2_sk_5</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1_2_e_1</t>
+          <t>6_1_e_3</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1_2_e_3</t>
+          <t>6_2_sk_8</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1_2_e_2</t>
+          <t>6_1_e_4</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1_3_e_4</t>
+          <t>1_1_e_4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1_3_e_1</t>
+          <t>1_1_e_1</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -14381,12 +14401,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1_3_e_3</t>
+          <t>1_1_e_3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1_3_e_2</t>
+          <t>1_1_e_2</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -14396,12 +14416,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2_1_e_4</t>
+          <t>1_2_e_4</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2_1_e_1</t>
+          <t>1_2_e_1</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -14411,12 +14431,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2_1_e_3</t>
+          <t>1_2_e_3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2_1_e_2</t>
+          <t>1_2_e_2</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -14426,12 +14446,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2_2_e_4</t>
+          <t>1_3_e_4</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2_2_e_1</t>
+          <t>1_3_e_1</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -14441,12 +14461,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2_2_e_3</t>
+          <t>1_3_e_3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2_2_e_2</t>
+          <t>1_3_e_2</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -14456,12 +14476,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2_3_e_4</t>
+          <t>2_1_e_4</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2_3_e_1</t>
+          <t>2_1_e_1</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -14471,12 +14491,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2_3_e_3</t>
+          <t>2_1_e_3</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2_3_e_2</t>
+          <t>2_1_e_2</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -14486,12 +14506,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3_1_e_4</t>
+          <t>2_2_e_4</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3_1_e_1</t>
+          <t>2_2_e_1</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -14501,12 +14521,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3_1_e_3</t>
+          <t>2_2_e_3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3_1_e_2</t>
+          <t>2_2_e_2</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -14516,12 +14536,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3_2_e_4</t>
+          <t>2_3_e_4</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3_2_e_1</t>
+          <t>2_3_e_1</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -14531,12 +14551,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3_2_e_3</t>
+          <t>2_3_e_3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3_2_e_2</t>
+          <t>2_3_e_2</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -14546,12 +14566,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3_3_e_4</t>
+          <t>3_1_e_4</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3_3_e_1</t>
+          <t>3_1_e_1</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -14561,12 +14581,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3_3_e_3</t>
+          <t>3_1_e_3</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3_3_e_2</t>
+          <t>3_1_e_2</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -14576,12 +14596,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4_1_e_4</t>
+          <t>3_2_e_4</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4_1_e_1</t>
+          <t>3_2_e_1</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -14591,12 +14611,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4_1_e_3</t>
+          <t>3_2_e_3</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>4_1_e_2</t>
+          <t>3_2_e_2</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -14606,12 +14626,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4_4_e_4</t>
+          <t>3_3_e_4</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>4_4_e_1</t>
+          <t>3_3_e_1</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -14621,12 +14641,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4_4_e_3</t>
+          <t>3_3_e_3</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>4_4_e_2</t>
+          <t>3_3_e_2</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -14636,12 +14656,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5_1_e_4</t>
+          <t>4_1_e_4</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>5_1_e_1</t>
+          <t>4_1_e_1</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -14651,12 +14671,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>5_1_e_3</t>
+          <t>4_1_e_3</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5_1_e_2</t>
+          <t>4_1_e_2</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -14666,12 +14686,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6_1_e_4</t>
+          <t>4_2_e_4</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>6_1_e_1</t>
+          <t>4_2_e_1</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -14681,12 +14701,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6_1_e_3</t>
+          <t>4_2_e_3</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>6_1_e_2</t>
+          <t>4_2_e_2</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -14696,12 +14716,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>4_2_e_4</t>
+          <t>4_4_e_4</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>4_2_e_1</t>
+          <t>4_4_e_1</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -14711,87 +14731,87 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1_1_sk_1</t>
+          <t>4_4_e_3</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1_1_sk_2</t>
+          <t>4_4_e_2</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1_2_sk_1</t>
+          <t>5_1_e_4</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1_2_sk_2</t>
+          <t>5_1_e_1</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1_3_sk_1</t>
+          <t>5_1_e_3</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1_3_sk_2</t>
+          <t>5_1_e_2</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1_4_sk_1</t>
+          <t>6_1_e_4</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1_4_sk_2</t>
+          <t>6_1_e_1</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2_1_sk_1</t>
+          <t>6_1_e_3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2_1_sk_2</t>
+          <t>6_1_e_2</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2_2_sk_1</t>
+          <t>1_1_sk_1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2_2_sk_2</t>
+          <t>1_1_sk_2</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -14801,12 +14821,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2_4_sk_1</t>
+          <t>1_2_sk_1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2_4_sk_2</t>
+          <t>1_2_sk_2</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -14816,12 +14836,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3_1_sk_1</t>
+          <t>1_3_sk_1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3_1_sk_2</t>
+          <t>1_3_sk_2</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -14831,12 +14851,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3_2_sk_1</t>
+          <t>1_4_sk_1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3_2_sk_2</t>
+          <t>1_4_sk_2</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -14846,12 +14866,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3_3_sk_1</t>
+          <t>2_1_sk_1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3_3_sk_2</t>
+          <t>2_1_sk_2</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -14861,12 +14881,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3_4_sk_1</t>
+          <t>2_2_sk_1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3_4_sk_2</t>
+          <t>2_2_sk_2</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -14876,12 +14896,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>4_1_sk_1</t>
+          <t>2_4_sk_1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4_1_sk_2</t>
+          <t>2_4_sk_2</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -14891,12 +14911,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>4_2_sk_1</t>
+          <t>3_1_sk_1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>4_2_sk_2</t>
+          <t>3_1_sk_2</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -14906,12 +14926,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>4_3_sk_1</t>
+          <t>3_2_sk_1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4_3_sk_2</t>
+          <t>3_2_sk_2</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -14921,12 +14941,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4_4_sk_1</t>
+          <t>3_3_sk_1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4_4_sk_2</t>
+          <t>3_3_sk_2</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -14936,12 +14956,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>5_1_sk_1</t>
+          <t>3_4_sk_1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>5_1_sk_2</t>
+          <t>3_4_sk_2</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -14951,12 +14971,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>5_1_sk_3</t>
+          <t>4_1_sk_1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>5_1_sk_4</t>
+          <t>4_1_sk_2</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -14966,12 +14986,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6_1_sk_1</t>
+          <t>4_2_sk_1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>6_1_sk_2</t>
+          <t>4_2_sk_2</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -14981,12 +15001,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6_1_sk_3</t>
+          <t>4_3_sk_1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>6_1_sk_4</t>
+          <t>4_3_sk_2</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -14996,87 +15016,87 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1_1_sk_4</t>
+          <t>4_4_sk_1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1_1_sk_3</t>
+          <t>4_4_sk_2</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1_2_sk_4</t>
+          <t>5_1_sk_1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1_2_sk_3</t>
+          <t>5_1_sk_2</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1_3_sk_4</t>
+          <t>5_1_sk_3</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1_3_sk_3</t>
+          <t>5_1_sk_4</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1_4_sk_4</t>
+          <t>6_1_sk_1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1_4_sk_3</t>
+          <t>6_1_sk_2</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2_1_sk_4</t>
+          <t>6_1_sk_3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2_1_sk_3</t>
+          <t>6_1_sk_4</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2_2_sk_4</t>
+          <t>1_1_sk_4</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2_2_sk_3</t>
+          <t>1_1_sk_3</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -15086,12 +15106,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2_4_sk_4</t>
+          <t>1_2_sk_4</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2_4_sk_3</t>
+          <t>1_2_sk_3</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -15101,12 +15121,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3_1_sk_4</t>
+          <t>1_3_sk_4</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3_1_sk_3</t>
+          <t>1_3_sk_3</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -15116,12 +15136,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3_2_sk_4</t>
+          <t>1_4_sk_4</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3_2_sk_3</t>
+          <t>1_4_sk_3</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -15131,12 +15151,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3_3_sk_4</t>
+          <t>2_1_sk_4</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>3_3_sk_3</t>
+          <t>2_1_sk_3</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -15146,12 +15166,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3_4_sk_4</t>
+          <t>2_2_sk_4</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>3_4_sk_3</t>
+          <t>2_2_sk_3</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -15161,12 +15181,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>4_1_sk_4</t>
+          <t>2_4_sk_4</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>4_1_sk_3</t>
+          <t>2_4_sk_3</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -15176,12 +15196,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>4_2_sk_4</t>
+          <t>3_1_sk_4</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>4_2_sk_3</t>
+          <t>3_1_sk_3</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -15191,12 +15211,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>4_3_sk_4</t>
+          <t>3_2_sk_4</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4_3_sk_3</t>
+          <t>3_2_sk_3</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -15206,12 +15226,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4_4_sk_4</t>
+          <t>3_3_sk_4</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>4_4_sk_3</t>
+          <t>3_3_sk_3</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -15221,12 +15241,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>5_1_sk_8</t>
+          <t>3_4_sk_4</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>5_1_sk_7</t>
+          <t>3_4_sk_3</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -15236,12 +15256,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>5_1_sk_6</t>
+          <t>4_1_sk_4</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>5_1_sk_5</t>
+          <t>4_1_sk_3</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -15251,12 +15271,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>6_1_sk_8</t>
+          <t>4_2_sk_4</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>6_1_sk_7</t>
+          <t>4_2_sk_3</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -15266,12 +15286,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>6_1_sk_6</t>
+          <t>4_3_sk_4</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>6_1_sk_5</t>
+          <t>4_3_sk_3</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -15281,87 +15301,87 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1_1_sk_5</t>
+          <t>4_4_sk_4</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1_1_sk_6</t>
+          <t>4_4_sk_3</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1_2_sk_5</t>
+          <t>5_1_sk_8</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1_2_sk_6</t>
+          <t>5_1_sk_7</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1_3_sk_5</t>
+          <t>5_1_sk_6</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1_3_sk_6</t>
+          <t>5_1_sk_5</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1_4_sk_5</t>
+          <t>6_1_sk_8</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1_4_sk_6</t>
+          <t>6_1_sk_7</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2_1_sk_5</t>
+          <t>6_1_sk_6</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2_1_sk_6</t>
+          <t>6_1_sk_5</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2_2_sk_5</t>
+          <t>1_1_sk_5</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2_2_sk_6</t>
+          <t>1_1_sk_6</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -15371,12 +15391,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2_4_sk_5</t>
+          <t>1_2_sk_5</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2_4_sk_6</t>
+          <t>1_2_sk_6</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -15386,12 +15406,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3_1_sk_5</t>
+          <t>1_3_sk_5</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>3_1_sk_6</t>
+          <t>1_3_sk_6</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -15401,12 +15421,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>3_2_sk_5</t>
+          <t>1_4_sk_5</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>3_2_sk_6</t>
+          <t>1_4_sk_6</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -15416,12 +15436,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3_3_sk_5</t>
+          <t>2_1_sk_5</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>3_3_sk_6</t>
+          <t>2_1_sk_6</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -15431,12 +15451,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>3_4_sk_5</t>
+          <t>2_2_sk_5</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>3_4_sk_6</t>
+          <t>2_2_sk_6</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -15446,12 +15466,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>4_1_sk_5</t>
+          <t>2_4_sk_5</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>4_1_sk_6</t>
+          <t>2_4_sk_6</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -15461,12 +15481,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>4_2_sk_5</t>
+          <t>3_1_sk_5</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>4_2_sk_6</t>
+          <t>3_1_sk_6</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -15476,12 +15496,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>4_3_sk_5</t>
+          <t>3_2_sk_5</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>4_3_sk_6</t>
+          <t>3_2_sk_6</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -15491,12 +15511,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>4_4_sk_5</t>
+          <t>3_3_sk_5</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>4_4_sk_6</t>
+          <t>3_3_sk_6</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -15506,12 +15526,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>5_2_sk_1</t>
+          <t>3_4_sk_5</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>5_2_sk_2</t>
+          <t>3_4_sk_6</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -15521,12 +15541,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>5_2_sk_3</t>
+          <t>4_1_sk_5</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>5_2_sk_4</t>
+          <t>4_1_sk_6</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -15536,12 +15556,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6_2_sk_1</t>
+          <t>4_2_sk_5</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>6_2_sk_2</t>
+          <t>4_2_sk_6</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -15551,12 +15571,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6_2_sk_3</t>
+          <t>4_3_sk_5</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>6_2_sk_4</t>
+          <t>4_3_sk_6</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -15566,87 +15586,87 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1_1_sk_8</t>
+          <t>4_4_sk_5</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1_1_sk_7</t>
+          <t>4_4_sk_6</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1_2_sk_8</t>
+          <t>5_2_sk_1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1_2_sk_7</t>
+          <t>5_2_sk_2</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1_3_sk_8</t>
+          <t>5_2_sk_3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1_3_sk_7</t>
+          <t>5_2_sk_4</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1_4_sk_8</t>
+          <t>6_2_sk_1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1_4_sk_7</t>
+          <t>6_2_sk_2</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2_1_sk_8</t>
+          <t>6_2_sk_3</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2_1_sk_7</t>
+          <t>6_2_sk_4</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2_2_sk_8</t>
+          <t>1_1_sk_8</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2_2_sk_7</t>
+          <t>1_1_sk_7</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -15656,12 +15676,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2_4_sk_8</t>
+          <t>1_2_sk_8</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2_4_sk_7</t>
+          <t>1_2_sk_7</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -15671,12 +15691,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>3_1_sk_8</t>
+          <t>1_3_sk_8</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>3_1_sk_7</t>
+          <t>1_3_sk_7</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -15686,12 +15706,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>3_2_sk_8</t>
+          <t>1_4_sk_8</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>3_2_sk_7</t>
+          <t>1_4_sk_7</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -15701,12 +15721,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>3_3_sk_8</t>
+          <t>2_1_sk_8</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>3_3_sk_7</t>
+          <t>2_1_sk_7</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -15716,12 +15736,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>3_4_sk_8</t>
+          <t>2_2_sk_8</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>3_4_sk_7</t>
+          <t>2_2_sk_7</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -15731,12 +15751,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>4_1_sk_8</t>
+          <t>2_4_sk_8</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>4_1_sk_7</t>
+          <t>2_4_sk_7</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -15746,12 +15766,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>4_2_sk_8</t>
+          <t>3_1_sk_8</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>4_2_sk_7</t>
+          <t>3_1_sk_7</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -15761,12 +15781,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>4_3_sk_8</t>
+          <t>3_2_sk_8</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>4_3_sk_7</t>
+          <t>3_2_sk_7</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -15776,12 +15796,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>4_4_sk_8</t>
+          <t>3_3_sk_8</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>4_4_sk_7</t>
+          <t>3_3_sk_7</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -15791,12 +15811,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>5_2_sk_8</t>
+          <t>3_4_sk_8</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>5_2_sk_7</t>
+          <t>3_4_sk_7</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -15806,12 +15826,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>5_2_sk_6</t>
+          <t>4_1_sk_8</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>5_2_sk_5</t>
+          <t>4_1_sk_7</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -15821,12 +15841,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6_2_sk_8</t>
+          <t>4_2_sk_8</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>6_2_sk_7</t>
+          <t>4_2_sk_7</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -15836,12 +15856,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6_2_sk_6</t>
+          <t>4_3_sk_8</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>6_2_sk_5</t>
+          <t>4_3_sk_7</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -15851,87 +15871,87 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1_1_sk_4</t>
+          <t>4_4_sk_8</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1_1_sk_1</t>
+          <t>4_4_sk_7</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1_1_sk_3</t>
+          <t>5_2_sk_8</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1_1_sk_2</t>
+          <t>5_2_sk_7</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1_2_sk_4</t>
+          <t>5_2_sk_6</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1_2_sk_1</t>
+          <t>5_2_sk_5</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1_2_sk_3</t>
+          <t>6_2_sk_8</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1_2_sk_2</t>
+          <t>6_2_sk_7</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1_3_sk_4</t>
+          <t>6_2_sk_6</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1_3_sk_1</t>
+          <t>6_2_sk_5</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1_3_sk_3</t>
+          <t>1_1_sk_4</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1_3_sk_2</t>
+          <t>1_1_sk_1</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -15941,12 +15961,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1_4_sk_4</t>
+          <t>1_1_sk_3</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1_4_sk_1</t>
+          <t>1_1_sk_2</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -15956,12 +15976,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1_4_sk_3</t>
+          <t>1_2_sk_4</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1_4_sk_2</t>
+          <t>1_2_sk_1</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -15971,12 +15991,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2_1_sk_4</t>
+          <t>1_2_sk_3</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2_1_sk_1</t>
+          <t>1_2_sk_2</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -15986,12 +16006,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2_1_sk_3</t>
+          <t>1_3_sk_4</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2_1_sk_2</t>
+          <t>1_3_sk_1</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -16001,12 +16021,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2_2_sk_4</t>
+          <t>1_3_sk_3</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2_2_sk_1</t>
+          <t>1_3_sk_2</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -16016,12 +16036,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2_2_sk_3</t>
+          <t>1_4_sk_4</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2_2_sk_2</t>
+          <t>1_4_sk_1</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -16031,12 +16051,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2_4_sk_4</t>
+          <t>1_4_sk_3</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2_4_sk_1</t>
+          <t>1_4_sk_2</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -16046,12 +16066,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2_4_sk_3</t>
+          <t>2_1_sk_4</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2_4_sk_2</t>
+          <t>2_1_sk_1</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -16061,12 +16081,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>3_1_sk_4</t>
+          <t>2_1_sk_3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>3_1_sk_1</t>
+          <t>2_1_sk_2</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -16076,12 +16096,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>3_1_sk_3</t>
+          <t>2_2_sk_4</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>3_1_sk_2</t>
+          <t>2_2_sk_1</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -16091,12 +16111,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3_2_sk_4</t>
+          <t>2_2_sk_3</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>3_2_sk_1</t>
+          <t>2_2_sk_2</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -16106,12 +16126,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>3_2_sk_3</t>
+          <t>2_4_sk_4</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>3_2_sk_2</t>
+          <t>2_4_sk_1</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -16121,12 +16141,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>3_3_sk_4</t>
+          <t>2_4_sk_3</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>3_3_sk_1</t>
+          <t>2_4_sk_2</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -16136,12 +16156,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3_3_sk_3</t>
+          <t>3_1_sk_4</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>3_3_sk_2</t>
+          <t>3_1_sk_1</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -16151,12 +16171,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>3_4_sk_4</t>
+          <t>3_1_sk_3</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>3_4_sk_1</t>
+          <t>3_1_sk_2</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -16166,12 +16186,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>3_4_sk_3</t>
+          <t>3_2_sk_4</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>3_4_sk_2</t>
+          <t>3_2_sk_1</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -16181,12 +16201,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>4_1_sk_4</t>
+          <t>3_2_sk_3</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4_1_sk_1</t>
+          <t>3_2_sk_2</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -16196,12 +16216,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>4_1_sk_3</t>
+          <t>3_3_sk_4</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>4_1_sk_2</t>
+          <t>3_3_sk_1</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -16211,12 +16231,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>4_2_sk_4</t>
+          <t>3_3_sk_3</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>4_2_sk_1</t>
+          <t>3_3_sk_2</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -16226,12 +16246,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>4_2_sk_3</t>
+          <t>3_4_sk_4</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>4_2_sk_2</t>
+          <t>3_4_sk_1</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -16241,12 +16261,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>4_3_sk_4</t>
+          <t>3_4_sk_3</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>4_3_sk_1</t>
+          <t>3_4_sk_2</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -16256,12 +16276,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>4_3_sk_3</t>
+          <t>4_1_sk_4</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>4_3_sk_2</t>
+          <t>4_1_sk_1</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -16271,12 +16291,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>4_4_sk_4</t>
+          <t>4_1_sk_3</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>4_4_sk_1</t>
+          <t>4_1_sk_2</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -16286,12 +16306,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>4_4_sk_3</t>
+          <t>4_2_sk_4</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>4_4_sk_2</t>
+          <t>4_2_sk_1</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -16301,12 +16321,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>5_1_sk_8</t>
+          <t>4_2_sk_3</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>5_1_sk_1</t>
+          <t>4_2_sk_2</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -16316,12 +16336,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>5_1_sk_7</t>
+          <t>4_3_sk_4</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>5_1_sk_2</t>
+          <t>4_3_sk_1</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -16331,12 +16351,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>5_1_sk_6</t>
+          <t>4_3_sk_3</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>5_1_sk_3</t>
+          <t>4_3_sk_2</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -16346,12 +16366,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>5_1_sk_5</t>
+          <t>4_4_sk_4</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>5_1_sk_4</t>
+          <t>4_4_sk_1</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -16361,12 +16381,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6_1_sk_8</t>
+          <t>4_4_sk_3</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>6_1_sk_1</t>
+          <t>4_4_sk_2</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -16376,12 +16396,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>6_1_sk_7</t>
+          <t>5_1_sk_8</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>6_1_sk_2</t>
+          <t>5_1_sk_1</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -16391,12 +16411,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6_1_sk_6</t>
+          <t>5_1_sk_7</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>6_1_sk_3</t>
+          <t>5_1_sk_2</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -16406,12 +16426,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6_1_sk_5</t>
+          <t>5_1_sk_6</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>6_1_sk_4</t>
+          <t>5_1_sk_3</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -16421,87 +16441,87 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1_1_sk_8</t>
+          <t>5_1_sk_5</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>1_1_sk_5</t>
+          <t>5_1_sk_4</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1_1_sk_7</t>
+          <t>6_1_sk_8</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>1_1_sk_6</t>
+          <t>6_1_sk_1</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1_2_sk_8</t>
+          <t>6_1_sk_7</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>1_2_sk_5</t>
+          <t>6_1_sk_2</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1_2_sk_7</t>
+          <t>6_1_sk_6</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>1_2_sk_6</t>
+          <t>6_1_sk_3</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1_3_sk_8</t>
+          <t>6_1_sk_5</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>1_3_sk_5</t>
+          <t>6_1_sk_4</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1_3_sk_7</t>
+          <t>1_1_sk_8</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>1_3_sk_6</t>
+          <t>1_1_sk_5</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -16511,12 +16531,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1_4_sk_8</t>
+          <t>1_1_sk_7</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1_4_sk_5</t>
+          <t>1_1_sk_6</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -16526,12 +16546,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1_4_sk_7</t>
+          <t>1_2_sk_8</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>1_4_sk_6</t>
+          <t>1_2_sk_5</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -16541,12 +16561,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2_1_sk_8</t>
+          <t>1_2_sk_7</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2_1_sk_5</t>
+          <t>1_2_sk_6</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -16556,12 +16576,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2_1_sk_7</t>
+          <t>1_3_sk_8</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2_1_sk_6</t>
+          <t>1_3_sk_5</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -16571,12 +16591,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2_2_sk_8</t>
+          <t>1_3_sk_7</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2_2_sk_5</t>
+          <t>1_3_sk_6</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -16586,12 +16606,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2_2_sk_7</t>
+          <t>1_4_sk_8</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2_2_sk_6</t>
+          <t>1_4_sk_5</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -16601,12 +16621,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2_4_sk_8</t>
+          <t>1_4_sk_7</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2_4_sk_5</t>
+          <t>1_4_sk_6</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -16616,12 +16636,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2_4_sk_7</t>
+          <t>2_1_sk_8</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2_4_sk_6</t>
+          <t>2_1_sk_5</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -16631,12 +16651,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>3_1_sk_8</t>
+          <t>2_1_sk_7</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>3_1_sk_5</t>
+          <t>2_1_sk_6</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -16646,12 +16666,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>3_1_sk_7</t>
+          <t>2_2_sk_8</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>3_1_sk_6</t>
+          <t>2_2_sk_5</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -16661,12 +16681,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>3_2_sk_8</t>
+          <t>2_2_sk_7</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>3_2_sk_5</t>
+          <t>2_2_sk_6</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -16676,12 +16696,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>3_2_sk_7</t>
+          <t>2_4_sk_8</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>3_2_sk_6</t>
+          <t>2_4_sk_5</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -16691,12 +16711,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>3_3_sk_8</t>
+          <t>2_4_sk_7</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>3_3_sk_5</t>
+          <t>2_4_sk_6</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -16706,12 +16726,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>3_3_sk_7</t>
+          <t>3_1_sk_8</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>3_3_sk_6</t>
+          <t>3_1_sk_5</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -16721,12 +16741,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>3_4_sk_8</t>
+          <t>3_1_sk_7</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>3_4_sk_5</t>
+          <t>3_1_sk_6</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -16736,12 +16756,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>3_4_sk_7</t>
+          <t>3_2_sk_8</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>3_4_sk_6</t>
+          <t>3_2_sk_5</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -16751,12 +16771,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>4_1_sk_8</t>
+          <t>3_2_sk_7</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>4_1_sk_5</t>
+          <t>3_2_sk_6</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -16766,12 +16786,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>4_1_sk_7</t>
+          <t>3_3_sk_8</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>4_1_sk_6</t>
+          <t>3_3_sk_5</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -16781,12 +16801,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>4_2_sk_8</t>
+          <t>3_3_sk_7</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>4_2_sk_5</t>
+          <t>3_3_sk_6</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -16796,12 +16816,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>4_2_sk_7</t>
+          <t>3_4_sk_8</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>4_2_sk_6</t>
+          <t>3_4_sk_5</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -16811,12 +16831,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>4_3_sk_8</t>
+          <t>3_4_sk_7</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>4_3_sk_5</t>
+          <t>3_4_sk_6</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -16826,12 +16846,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>4_3_sk_7</t>
+          <t>4_1_sk_8</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>4_3_sk_6</t>
+          <t>4_1_sk_5</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -16841,12 +16861,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>4_4_sk_8</t>
+          <t>4_1_sk_7</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>4_4_sk_5</t>
+          <t>4_1_sk_6</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -16856,12 +16876,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>4_4_sk_7</t>
+          <t>4_2_sk_8</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>4_4_sk_6</t>
+          <t>4_2_sk_5</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -16871,12 +16891,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>5_2_sk_8</t>
+          <t>4_2_sk_7</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>5_2_sk_1</t>
+          <t>4_2_sk_6</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -16886,12 +16906,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>5_2_sk_7</t>
+          <t>4_3_sk_8</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>5_2_sk_2</t>
+          <t>4_3_sk_5</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -16901,12 +16921,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>5_2_sk_6</t>
+          <t>4_3_sk_7</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>5_2_sk_3</t>
+          <t>4_3_sk_6</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -16916,12 +16936,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>5_2_sk_5</t>
+          <t>4_4_sk_8</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>5_2_sk_4</t>
+          <t>4_4_sk_5</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -16931,12 +16951,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6_2_sk_8</t>
+          <t>4_4_sk_7</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>6_2_sk_1</t>
+          <t>4_4_sk_6</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -16946,12 +16966,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6_2_sk_7</t>
+          <t>5_2_sk_8</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>6_2_sk_2</t>
+          <t>5_2_sk_1</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -16961,12 +16981,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6_2_sk_6</t>
+          <t>5_2_sk_7</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>6_2_sk_3</t>
+          <t>5_2_sk_2</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -16976,12 +16996,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6_2_sk_5</t>
+          <t>5_2_sk_6</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>6_2_sk_4</t>
+          <t>5_2_sk_3</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -16991,87 +17011,87 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1_1_sk_1</t>
+          <t>5_2_sk_5</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1_1_sk_5</t>
+          <t>5_2_sk_4</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1_1_sk_2</t>
+          <t>6_2_sk_8</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>1_1_sk_6</t>
+          <t>6_2_sk_1</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1_2_sk_1</t>
+          <t>6_2_sk_7</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>1_2_sk_5</t>
+          <t>6_2_sk_2</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1_2_sk_2</t>
+          <t>6_2_sk_6</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1_2_sk_6</t>
+          <t>6_2_sk_3</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1_3_sk_1</t>
+          <t>6_2_sk_5</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>1_3_sk_5</t>
+          <t>6_2_sk_4</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1_3_sk_2</t>
+          <t>1_1_sk_1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>1_3_sk_6</t>
+          <t>1_1_sk_5</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -17081,12 +17101,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1_4_sk_1</t>
+          <t>1_1_sk_2</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>1_4_sk_5</t>
+          <t>1_1_sk_6</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -17096,12 +17116,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1_4_sk_2</t>
+          <t>1_2_sk_1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>1_4_sk_6</t>
+          <t>1_2_sk_5</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -17111,12 +17131,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2_1_sk_1</t>
+          <t>1_2_sk_2</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2_1_sk_5</t>
+          <t>1_2_sk_6</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -17126,12 +17146,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2_1_sk_2</t>
+          <t>1_3_sk_1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2_1_sk_6</t>
+          <t>1_3_sk_5</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -17141,12 +17161,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2_2_sk_1</t>
+          <t>1_3_sk_2</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2_2_sk_5</t>
+          <t>1_3_sk_6</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -17156,12 +17176,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2_2_sk_2</t>
+          <t>1_4_sk_1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2_2_sk_6</t>
+          <t>1_4_sk_5</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -17171,12 +17191,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2_4_sk_1</t>
+          <t>1_4_sk_2</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2_4_sk_5</t>
+          <t>1_4_sk_6</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -17186,12 +17206,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2_4_sk_2</t>
+          <t>2_1_sk_1</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2_4_sk_6</t>
+          <t>2_1_sk_5</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -17201,12 +17221,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>3_1_sk_1</t>
+          <t>2_1_sk_2</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>3_1_sk_5</t>
+          <t>2_1_sk_6</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -17216,12 +17236,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>3_1_sk_2</t>
+          <t>2_2_sk_1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>3_1_sk_6</t>
+          <t>2_2_sk_5</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -17231,12 +17251,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>3_2_sk_1</t>
+          <t>2_2_sk_2</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>3_2_sk_5</t>
+          <t>2_2_sk_6</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -17246,12 +17266,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>3_2_sk_2</t>
+          <t>2_4_sk_1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>3_2_sk_6</t>
+          <t>2_4_sk_5</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -17261,12 +17281,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>3_3_sk_1</t>
+          <t>2_4_sk_2</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>3_3_sk_5</t>
+          <t>2_4_sk_6</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -17276,12 +17296,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>3_3_sk_2</t>
+          <t>3_1_sk_1</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>3_3_sk_6</t>
+          <t>3_1_sk_5</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -17291,12 +17311,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>3_4_sk_1</t>
+          <t>3_1_sk_2</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>3_4_sk_5</t>
+          <t>3_1_sk_6</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -17306,12 +17326,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>3_4_sk_2</t>
+          <t>3_2_sk_1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>3_4_sk_6</t>
+          <t>3_2_sk_5</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -17321,12 +17341,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>4_1_sk_1</t>
+          <t>3_2_sk_2</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>4_1_sk_5</t>
+          <t>3_2_sk_6</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -17336,12 +17356,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>4_1_sk_2</t>
+          <t>3_3_sk_1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>4_1_sk_6</t>
+          <t>3_3_sk_5</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -17351,12 +17371,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>4_2_sk_1</t>
+          <t>3_3_sk_2</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>4_2_sk_5</t>
+          <t>3_3_sk_6</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -17366,12 +17386,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>4_2_sk_2</t>
+          <t>3_4_sk_1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>4_2_sk_6</t>
+          <t>3_4_sk_5</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -17381,12 +17401,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>4_3_sk_1</t>
+          <t>3_4_sk_2</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>4_3_sk_5</t>
+          <t>3_4_sk_6</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -17396,12 +17416,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>4_3_sk_2</t>
+          <t>4_1_sk_1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>4_3_sk_6</t>
+          <t>4_1_sk_5</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -17411,12 +17431,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>4_4_sk_1</t>
+          <t>4_1_sk_2</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>4_4_sk_5</t>
+          <t>4_1_sk_6</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -17426,12 +17446,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>4_4_sk_2</t>
+          <t>4_2_sk_1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>4_4_sk_6</t>
+          <t>4_2_sk_5</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -17441,12 +17461,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5_1_sk_1</t>
+          <t>4_2_sk_2</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>5_2_sk_1</t>
+          <t>4_2_sk_6</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -17456,12 +17476,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>5_1_sk_2</t>
+          <t>4_3_sk_1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>5_2_sk_2</t>
+          <t>4_3_sk_5</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -17471,12 +17491,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>5_1_sk_3</t>
+          <t>4_3_sk_2</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>5_2_sk_3</t>
+          <t>4_3_sk_6</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -17486,12 +17506,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5_1_sk_4</t>
+          <t>4_4_sk_1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>5_2_sk_4</t>
+          <t>4_4_sk_5</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -17501,12 +17521,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6_1_sk_1</t>
+          <t>4_4_sk_2</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>6_2_sk_1</t>
+          <t>4_4_sk_6</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -17516,12 +17536,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6_1_sk_2</t>
+          <t>5_1_sk_1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>6_2_sk_2</t>
+          <t>5_2_sk_1</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -17531,12 +17551,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6_1_sk_3</t>
+          <t>5_1_sk_2</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>6_2_sk_3</t>
+          <t>5_2_sk_2</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -17546,12 +17566,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6_1_sk_4</t>
+          <t>5_1_sk_3</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>6_2_sk_4</t>
+          <t>5_2_sk_3</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -17561,87 +17581,87 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1_1_sk_4</t>
+          <t>5_1_sk_4</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>1_1_sk_8</t>
+          <t>5_2_sk_4</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1_1_sk_3</t>
+          <t>6_1_sk_1</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>1_1_sk_7</t>
+          <t>6_2_sk_1</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1_2_sk_4</t>
+          <t>6_1_sk_2</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>1_2_sk_8</t>
+          <t>6_2_sk_2</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1_2_sk_3</t>
+          <t>6_1_sk_3</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>1_2_sk_7</t>
+          <t>6_2_sk_3</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1_3_sk_4</t>
+          <t>6_1_sk_4</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>1_3_sk_8</t>
+          <t>6_2_sk_4</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1_3_sk_3</t>
+          <t>1_1_sk_4</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>1_3_sk_7</t>
+          <t>1_1_sk_8</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -17651,12 +17671,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1_4_sk_4</t>
+          <t>1_1_sk_3</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>1_4_sk_8</t>
+          <t>1_1_sk_7</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -17666,12 +17686,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1_4_sk_3</t>
+          <t>1_2_sk_4</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>1_4_sk_7</t>
+          <t>1_2_sk_8</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -17681,12 +17701,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2_1_sk_4</t>
+          <t>1_2_sk_3</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2_1_sk_8</t>
+          <t>1_2_sk_7</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -17696,12 +17716,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2_1_sk_3</t>
+          <t>1_3_sk_4</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2_1_sk_7</t>
+          <t>1_3_sk_8</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -17711,12 +17731,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2_2_sk_4</t>
+          <t>1_3_sk_3</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2_2_sk_8</t>
+          <t>1_3_sk_7</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -17726,12 +17746,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2_2_sk_3</t>
+          <t>1_4_sk_4</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2_2_sk_7</t>
+          <t>1_4_sk_8</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -17741,12 +17761,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2_4_sk_4</t>
+          <t>1_4_sk_3</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2_4_sk_8</t>
+          <t>1_4_sk_7</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -17756,12 +17776,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2_4_sk_3</t>
+          <t>2_1_sk_4</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2_4_sk_7</t>
+          <t>2_1_sk_8</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -17771,12 +17791,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>3_1_sk_4</t>
+          <t>2_1_sk_3</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>3_1_sk_8</t>
+          <t>2_1_sk_7</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -17786,12 +17806,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>3_1_sk_3</t>
+          <t>2_2_sk_4</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>3_1_sk_7</t>
+          <t>2_2_sk_8</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -17801,12 +17821,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>3_2_sk_4</t>
+          <t>2_2_sk_3</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>3_2_sk_8</t>
+          <t>2_2_sk_7</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -17816,12 +17836,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>3_2_sk_3</t>
+          <t>2_4_sk_4</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>3_2_sk_7</t>
+          <t>2_4_sk_8</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -17831,12 +17851,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>3_3_sk_4</t>
+          <t>2_4_sk_3</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>3_3_sk_8</t>
+          <t>2_4_sk_7</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -17846,12 +17866,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>3_3_sk_3</t>
+          <t>3_1_sk_4</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>3_3_sk_7</t>
+          <t>3_1_sk_8</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -17861,12 +17881,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>3_4_sk_4</t>
+          <t>3_1_sk_3</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>3_4_sk_8</t>
+          <t>3_1_sk_7</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -17876,12 +17896,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>3_4_sk_3</t>
+          <t>3_2_sk_4</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>3_4_sk_7</t>
+          <t>3_2_sk_8</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -17891,12 +17911,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>4_1_sk_4</t>
+          <t>3_2_sk_3</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>4_1_sk_8</t>
+          <t>3_2_sk_7</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -17906,12 +17926,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>4_1_sk_3</t>
+          <t>3_3_sk_4</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>4_1_sk_7</t>
+          <t>3_3_sk_8</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -17921,12 +17941,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>4_2_sk_4</t>
+          <t>3_3_sk_3</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>4_2_sk_8</t>
+          <t>3_3_sk_7</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -17936,12 +17956,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>4_2_sk_3</t>
+          <t>3_4_sk_4</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>4_2_sk_7</t>
+          <t>3_4_sk_8</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -17951,12 +17971,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>4_3_sk_4</t>
+          <t>3_4_sk_3</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>4_3_sk_8</t>
+          <t>3_4_sk_7</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -17966,12 +17986,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>4_3_sk_3</t>
+          <t>4_1_sk_4</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>4_3_sk_7</t>
+          <t>4_1_sk_8</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -17981,12 +18001,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>4_4_sk_4</t>
+          <t>4_1_sk_3</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>4_4_sk_8</t>
+          <t>4_1_sk_7</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -17996,12 +18016,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>4_4_sk_3</t>
+          <t>4_2_sk_4</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>4_4_sk_7</t>
+          <t>4_2_sk_8</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -18011,12 +18031,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>5_1_sk_8</t>
+          <t>4_2_sk_3</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>5_2_sk_8</t>
+          <t>4_2_sk_7</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -18026,12 +18046,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>5_1_sk_7</t>
+          <t>4_3_sk_4</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>5_2_sk_7</t>
+          <t>4_3_sk_8</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -18041,12 +18061,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>5_1_sk_6</t>
+          <t>4_3_sk_3</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>5_2_sk_6</t>
+          <t>4_3_sk_7</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -18056,12 +18076,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>5_1_sk_5</t>
+          <t>4_4_sk_4</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>5_2_sk_5</t>
+          <t>4_4_sk_8</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -18071,12 +18091,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6_1_sk_8</t>
+          <t>4_4_sk_3</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>6_2_sk_8</t>
+          <t>4_4_sk_7</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -18086,12 +18106,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6_1_sk_7</t>
+          <t>5_1_sk_8</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>6_2_sk_7</t>
+          <t>5_2_sk_8</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -18101,12 +18121,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6_1_sk_6</t>
+          <t>5_1_sk_7</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>6_2_sk_6</t>
+          <t>5_2_sk_7</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -18116,12 +18136,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6_1_sk_5</t>
+          <t>5_1_sk_6</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>6_2_sk_5</t>
+          <t>5_2_sk_6</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -18131,87 +18151,87 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>1_1_sk_5</t>
+          <t>5_1_sk_5</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>1_2_sk_1</t>
+          <t>5_2_sk_5</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1_1_sk_6</t>
+          <t>6_1_sk_8</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>1_2_sk_2</t>
+          <t>6_2_sk_8</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>1_2_sk_5</t>
+          <t>6_1_sk_7</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>1_3_sk_1</t>
+          <t>6_2_sk_7</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>1_2_sk_6</t>
+          <t>6_1_sk_6</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>1_3_sk_2</t>
+          <t>6_2_sk_6</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>1_3_sk_5</t>
+          <t>6_1_sk_5</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>1_4_sk_1</t>
+          <t>6_2_sk_5</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>1_3_sk_6</t>
+          <t>1_1_sk_5</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>1_4_sk_2</t>
+          <t>1_2_sk_1</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -18221,12 +18241,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2_1_sk_5</t>
+          <t>1_1_sk_6</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2_2_sk_1</t>
+          <t>1_2_sk_2</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -18236,12 +18256,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2_1_sk_6</t>
+          <t>1_2_sk_5</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2_2_sk_2</t>
+          <t>1_3_sk_1</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -18251,12 +18271,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2_2_sk_5</t>
+          <t>1_2_sk_6</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2_4_sk_1</t>
+          <t>1_3_sk_2</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -18266,12 +18286,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2_2_sk_6</t>
+          <t>1_3_sk_5</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2_4_sk_2</t>
+          <t>1_4_sk_1</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -18281,12 +18301,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>3_1_sk_5</t>
+          <t>1_3_sk_6</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>3_2_sk_1</t>
+          <t>1_4_sk_2</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -18296,12 +18316,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>3_1_sk_6</t>
+          <t>2_1_sk_5</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>3_2_sk_2</t>
+          <t>2_2_sk_1</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -18311,12 +18331,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>3_2_sk_5</t>
+          <t>2_1_sk_6</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>3_3_sk_1</t>
+          <t>2_2_sk_2</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -18326,12 +18346,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>3_2_sk_6</t>
+          <t>2_2_sk_5</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>3_3_sk_2</t>
+          <t>2_4_sk_1</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -18341,12 +18361,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>3_3_sk_5</t>
+          <t>2_2_sk_6</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>3_4_sk_1</t>
+          <t>2_4_sk_2</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -18356,12 +18376,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>3_3_sk_6</t>
+          <t>3_1_sk_5</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>3_4_sk_2</t>
+          <t>3_2_sk_1</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -18371,12 +18391,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4_1_sk_5</t>
+          <t>3_1_sk_6</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>4_2_sk_1</t>
+          <t>3_2_sk_2</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -18386,12 +18406,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>4_1_sk_6</t>
+          <t>3_2_sk_5</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>4_2_sk_2</t>
+          <t>3_3_sk_1</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -18401,12 +18421,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>4_2_sk_5</t>
+          <t>3_2_sk_6</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>4_3_sk_1</t>
+          <t>3_3_sk_2</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -18416,12 +18436,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>4_2_sk_6</t>
+          <t>3_3_sk_5</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>4_3_sk_2</t>
+          <t>3_4_sk_1</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -18431,87 +18451,87 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>1_1_sk_8</t>
+          <t>3_3_sk_6</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>1_2_sk_4</t>
+          <t>3_4_sk_2</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>1_1_sk_7</t>
+          <t>4_1_sk_5</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>1_2_sk_3</t>
+          <t>4_2_sk_1</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>1_2_sk_8</t>
+          <t>4_1_sk_6</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>1_3_sk_4</t>
+          <t>4_2_sk_2</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>1_2_sk_7</t>
+          <t>4_2_sk_5</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>1_3_sk_3</t>
+          <t>4_3_sk_1</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>1_3_sk_8</t>
+          <t>4_2_sk_6</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>1_4_sk_4</t>
+          <t>4_3_sk_2</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>1_3_sk_7</t>
+          <t>1_1_sk_8</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>1_4_sk_3</t>
+          <t>1_2_sk_4</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -18521,12 +18541,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2_1_sk_8</t>
+          <t>1_1_sk_7</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2_2_sk_4</t>
+          <t>1_2_sk_3</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -18536,12 +18556,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2_1_sk_7</t>
+          <t>1_2_sk_8</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2_2_sk_3</t>
+          <t>1_3_sk_4</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -18551,12 +18571,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2_2_sk_8</t>
+          <t>1_2_sk_7</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2_4_sk_4</t>
+          <t>1_3_sk_3</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -18566,12 +18586,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2_2_sk_7</t>
+          <t>1_3_sk_8</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2_4_sk_3</t>
+          <t>1_4_sk_4</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -18581,12 +18601,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>3_1_sk_8</t>
+          <t>1_3_sk_7</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>3_2_sk_4</t>
+          <t>1_4_sk_3</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -18596,12 +18616,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>3_1_sk_7</t>
+          <t>2_1_sk_8</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>3_2_sk_3</t>
+          <t>2_2_sk_4</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -18611,12 +18631,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>3_2_sk_8</t>
+          <t>2_1_sk_7</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>3_3_sk_4</t>
+          <t>2_2_sk_3</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -18626,12 +18646,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>3_2_sk_7</t>
+          <t>2_2_sk_8</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>3_3_sk_3</t>
+          <t>2_4_sk_4</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -18641,12 +18661,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3_3_sk_8</t>
+          <t>2_2_sk_7</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>3_4_sk_4</t>
+          <t>2_4_sk_3</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -18656,12 +18676,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3_3_sk_7</t>
+          <t>3_1_sk_8</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>3_4_sk_3</t>
+          <t>3_2_sk_4</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -18671,12 +18691,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>4_1_sk_8</t>
+          <t>3_1_sk_7</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>4_2_sk_4</t>
+          <t>3_2_sk_3</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -18686,12 +18706,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>4_1_sk_7</t>
+          <t>3_2_sk_8</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>4_2_sk_3</t>
+          <t>3_3_sk_4</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -18701,12 +18721,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>4_2_sk_8</t>
+          <t>3_2_sk_7</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>4_3_sk_4</t>
+          <t>3_3_sk_3</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -18716,12 +18736,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>4_2_sk_7</t>
+          <t>3_3_sk_8</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>4_3_sk_3</t>
+          <t>3_4_sk_4</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -18731,181 +18751,181 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>4_3_sk_5</t>
+          <t>3_3_sk_7</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>4_4_sk_7</t>
+          <t>3_4_sk_3</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>4_3_sk_8</t>
+          <t>4_1_sk_8</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>4_4_sk_8</t>
+          <t>4_2_sk_4</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>5_2_sk_7</t>
+          <t>4_1_sk_7</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>5_2_sk_6</t>
+          <t>4_2_sk_3</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6_2_sk_7</t>
+          <t>4_2_sk_8</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>6_2_sk_6</t>
+          <t>4_3_sk_4</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>5_2_sk_2</t>
+          <t>4_2_sk_7</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>5_2_sk_3</t>
+          <t>4_3_sk_3</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>6_2_sk_2</t>
+          <t>4_3_sk_5</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>6_2_sk_3</t>
+          <t>4_4_sk_7</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>5_1_sk_2</t>
+          <t>4_3_sk_8</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>5_1_sk_3</t>
+          <t>4_4_sk_8</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>6_1_sk_2</t>
+          <t>5_2_sk_7</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>6_1_sk_3</t>
+          <t>5_2_sk_6</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>5_1_sk_7</t>
+          <t>6_2_sk_7</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>5_1_sk_6</t>
+          <t>6_2_sk_6</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6_1_sk_7</t>
+          <t>5_2_sk_2</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>6_1_sk_6</t>
+          <t>5_2_sk_3</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>5_1_sk_2</t>
+          <t>6_2_sk_2</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>5_1_se_1</t>
+          <t>6_2_sk_3</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
+          <t>5_1_sk_2</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
           <t>5_1_sk_3</t>
         </is>
       </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>5_1_se_1</t>
-        </is>
-      </c>
       <c r="C408" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="409">
@@ -18916,232 +18936,232 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>6_1_se_1</t>
+          <t>6_1_sk_3</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>6_1_sk_3</t>
+          <t>5_1_sk_7</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>6_1_se_1</t>
+          <t>5_1_sk_6</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>5_1_sk_6</t>
+          <t>6_1_sk_7</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>5_1_se_2</t>
+          <t>6_1_sk_6</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>5_1_sk_7</t>
+          <t>5_1_sk_2</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>5_1_se_2</t>
+          <t>5_1_se_1</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>6_1_sk_6</t>
+          <t>5_1_sk_3</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>6_1_se_2</t>
+          <t>5_1_se_1</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>6_1_sk_7</t>
+          <t>6_1_sk_2</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>6_1_se_2</t>
+          <t>6_1_se_1</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>5_1_se_2</t>
+          <t>6_1_sk_3</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>5_1_se_1</t>
+          <t>6_1_se_1</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
+          <t>5_1_sk_6</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
           <t>5_1_se_2</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>5_1_se_1</t>
-        </is>
-      </c>
       <c r="C416" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>6_1_se_2</t>
+          <t>5_1_sk_7</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>6_1_se_1</t>
+          <t>5_1_se_2</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
+          <t>6_1_sk_6</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
           <t>6_1_se_2</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>6_1_se_1</t>
-        </is>
-      </c>
       <c r="C418" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>1_4_sk_1</t>
+          <t>6_1_sk_7</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>1_4_bl_1</t>
+          <t>6_1_se_2</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>1_4_sk_2</t>
+          <t>5_1_se_2</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>1_4_bl_2</t>
+          <t>5_1_se_1</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2_4_sk_1</t>
+          <t>5_1_se_2</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2_4_bl_1</t>
+          <t>5_1_se_1</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2_4_sk_2</t>
+          <t>6_1_se_2</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2_4_bl_2</t>
+          <t>6_1_se_1</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>3_4_sk_1</t>
+          <t>6_1_se_2</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>3_4_bl_1</t>
+          <t>6_1_se_1</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>3_4_sk_2</t>
+          <t>1_4_sk_1</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>3_4_bl_2</t>
+          <t>1_4_bl_1</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -19151,12 +19171,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>4_3_sk_1</t>
+          <t>1_4_sk_2</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>4_3_bl_1</t>
+          <t>1_4_bl_2</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -19166,12 +19186,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>4_3_sk_2</t>
+          <t>2_4_sk_1</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>4_3_bl_2</t>
+          <t>2_4_bl_1</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -19181,87 +19201,87 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>1_4_sk_5</t>
+          <t>2_4_sk_2</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>1_4_bl_1</t>
+          <t>2_4_bl_2</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>1_4_sk_6</t>
+          <t>3_4_sk_1</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>1_4_bl_2</t>
+          <t>3_4_bl_1</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2_4_sk_5</t>
+          <t>3_4_sk_2</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2_4_bl_1</t>
+          <t>3_4_bl_2</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2_4_sk_6</t>
+          <t>4_3_sk_1</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2_4_bl_2</t>
+          <t>4_3_bl_1</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>3_4_sk_5</t>
+          <t>4_3_sk_2</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>3_4_bl_1</t>
+          <t>4_3_bl_2</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>3_4_sk_6</t>
+          <t>1_4_sk_5</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>3_4_bl_2</t>
+          <t>1_4_bl_1</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -19271,12 +19291,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>4_3_sk_5</t>
+          <t>1_4_sk_6</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>4_3_bl_1</t>
+          <t>1_4_bl_2</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -19286,12 +19306,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>4_3_sk_6</t>
+          <t>2_4_sk_5</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>4_3_bl_2</t>
+          <t>2_4_bl_1</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -19301,87 +19321,87 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>1_4_sk_4</t>
+          <t>2_4_sk_6</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>1_4_bl_4</t>
+          <t>2_4_bl_2</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>1_4_sk_3</t>
+          <t>3_4_sk_5</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>1_4_bl_3</t>
+          <t>3_4_bl_1</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2_4_sk_4</t>
+          <t>3_4_sk_6</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2_4_bl_4</t>
+          <t>3_4_bl_2</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2_4_sk_3</t>
+          <t>4_3_sk_5</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2_4_bl_3</t>
+          <t>4_3_bl_1</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>3_4_sk_4</t>
+          <t>4_3_sk_6</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>3_4_bl_4</t>
+          <t>4_3_bl_2</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>3_4_sk_3</t>
+          <t>1_4_sk_4</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>3_4_bl_3</t>
+          <t>1_4_bl_4</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -19391,12 +19411,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>4_3_sk_4</t>
+          <t>1_4_sk_3</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>4_3_bl_4</t>
+          <t>1_4_bl_3</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -19406,12 +19426,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>4_3_sk_3</t>
+          <t>2_4_sk_4</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>4_3_bl_3</t>
+          <t>2_4_bl_4</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -19421,87 +19441,87 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>1_4_sk_8</t>
+          <t>2_4_sk_3</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>1_4_bl_4</t>
+          <t>2_4_bl_3</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>1_4_sk_7</t>
+          <t>3_4_sk_4</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>1_4_bl_3</t>
+          <t>3_4_bl_4</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2_4_sk_8</t>
+          <t>3_4_sk_3</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2_4_bl_4</t>
+          <t>3_4_bl_3</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2_4_sk_7</t>
+          <t>4_3_sk_4</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2_4_bl_3</t>
+          <t>4_3_bl_4</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>3_4_sk_8</t>
+          <t>4_3_sk_3</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>3_4_bl_4</t>
+          <t>4_3_bl_3</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>3_4_sk_7</t>
+          <t>1_4_sk_8</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>3_4_bl_3</t>
+          <t>1_4_bl_4</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -19511,12 +19531,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>4_3_sk_8</t>
+          <t>1_4_sk_7</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>4_3_bl_4</t>
+          <t>1_4_bl_3</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -19526,12 +19546,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>4_3_sk_7</t>
+          <t>2_4_sk_8</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>4_3_bl_3</t>
+          <t>2_4_bl_4</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -19541,87 +19561,87 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>5_2_sk_1</t>
+          <t>2_4_sk_7</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>5_3_bl_1</t>
+          <t>2_4_bl_3</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>5_2_sk_2</t>
+          <t>3_4_sk_8</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>5_3_bl_1</t>
+          <t>3_4_bl_4</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>5_2_sk_3</t>
+          <t>3_4_sk_7</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>5_3_bl_2</t>
+          <t>3_4_bl_3</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>5_2_sk_4</t>
+          <t>4_3_sk_8</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>5_3_bl_2</t>
+          <t>4_3_bl_4</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>6_2_sk_1</t>
+          <t>4_3_sk_7</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>6_3_bl_1</t>
+          <t>4_3_bl_3</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>6_2_sk_2</t>
+          <t>5_2_sk_1</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>6_3_bl_1</t>
+          <t>5_3_bl_1</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -19631,12 +19651,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>6_2_sk_3</t>
+          <t>5_2_sk_2</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>6_3_bl_2</t>
+          <t>5_3_bl_1</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -19646,12 +19666,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>6_2_sk_4</t>
+          <t>5_2_sk_3</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>6_3_bl_2</t>
+          <t>5_3_bl_2</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -19661,87 +19681,87 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>5_2_sk_8</t>
+          <t>5_2_sk_4</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>5_3_bl_4</t>
+          <t>5_3_bl_2</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>5_2_sk_7</t>
+          <t>6_2_sk_1</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>5_3_bl_4</t>
+          <t>6_3_bl_1</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>5_2_sk_6</t>
+          <t>6_2_sk_2</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>5_3_bl_3</t>
+          <t>6_3_bl_1</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>5_2_sk_5</t>
+          <t>6_2_sk_3</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>5_3_bl_3</t>
+          <t>6_3_bl_2</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>6_2_sk_8</t>
+          <t>6_2_sk_4</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>6_3_bl_4</t>
+          <t>6_3_bl_2</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>6_2_sk_7</t>
+          <t>5_2_sk_8</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>6_3_bl_4</t>
+          <t>5_3_bl_4</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -19751,12 +19771,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>6_2_sk_6</t>
+          <t>5_2_sk_7</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>6_3_bl_3</t>
+          <t>5_3_bl_4</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -19766,12 +19786,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>6_2_sk_5</t>
+          <t>5_2_sk_6</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>6_3_bl_3</t>
+          <t>5_3_bl_3</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -19781,87 +19801,87 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>1_4_bl_4</t>
+          <t>5_2_sk_5</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>1_4_bl_1</t>
+          <t>5_3_bl_3</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>1_4_bl_3</t>
+          <t>6_2_sk_8</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>1_4_bl_2</t>
+          <t>6_3_bl_4</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2_4_bl_4</t>
+          <t>6_2_sk_7</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2_4_bl_1</t>
+          <t>6_3_bl_4</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2_4_bl_3</t>
+          <t>6_2_sk_6</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2_4_bl_2</t>
+          <t>6_3_bl_3</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>3_4_bl_4</t>
+          <t>6_2_sk_5</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>3_4_bl_1</t>
+          <t>6_3_bl_3</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>3_4_bl_3</t>
+          <t>1_4_bl_4</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>3_4_bl_2</t>
+          <t>1_4_bl_1</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -19871,12 +19891,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>4_3_bl_4</t>
+          <t>1_4_bl_3</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>4_3_bl_1</t>
+          <t>1_4_bl_2</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -19886,12 +19906,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>4_3_bl_3</t>
+          <t>2_4_bl_4</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>4_3_bl_2</t>
+          <t>2_4_bl_1</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -19901,12 +19921,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>5_3_bl_4</t>
+          <t>2_4_bl_3</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>5_3_bl_1</t>
+          <t>2_4_bl_2</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -19916,12 +19936,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>5_3_bl_3</t>
+          <t>3_4_bl_4</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>5_3_bl_2</t>
+          <t>3_4_bl_1</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -19931,12 +19951,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>6_3_bl_4</t>
+          <t>3_4_bl_3</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>6_3_bl_1</t>
+          <t>3_4_bl_2</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -19946,12 +19966,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>6_3_bl_3</t>
+          <t>4_3_bl_4</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>6_3_bl_2</t>
+          <t>4_3_bl_1</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -19961,240 +19981,315 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2_3_ssk_1</t>
+          <t>4_3_bl_3</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2_3_e_1</t>
+          <t>4_3_bl_2</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2_3_ssk_2</t>
+          <t>5_3_bl_4</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2_3_e_2</t>
+          <t>5_3_bl_1</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2_3_ssk_5</t>
+          <t>5_3_bl_3</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2_3_e_1</t>
+          <t>5_3_bl_2</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2_3_ssk_6</t>
+          <t>6_3_bl_4</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2_3_e_2</t>
+          <t>6_3_bl_1</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2_3_ssk_4</t>
+          <t>6_3_bl_3</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2_3_e_4</t>
+          <t>6_3_bl_2</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2_3_ssk_3</t>
+          <t>2_3_ssk_1</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2_3_e_3</t>
+          <t>2_3_e_1</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2_3_ssk_8</t>
+          <t>2_3_ssk_2</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2_3_e_4</t>
+          <t>2_3_e_2</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2_3_ssk_7</t>
+          <t>2_3_ssk_5</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2_3_e_3</t>
+          <t>2_3_e_1</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2_3_ssk_8</t>
+          <t>2_3_ssk_6</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2_3_ssk_5</t>
+          <t>2_3_e_2</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2_3_ssk_7</t>
+          <t>2_3_ssk_4</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2_3_ssk_6</t>
+          <t>2_3_e_4</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2_3_ssk_4</t>
+          <t>2_3_ssk_3</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2_3_ssk_1</t>
+          <t>2_3_e_3</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2_3_ssk_3</t>
+          <t>2_3_ssk_8</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2_3_ssk_2</t>
+          <t>2_3_e_4</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2_3_ssk_1</t>
+          <t>2_3_ssk_7</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2_3_ssk_5</t>
+          <t>2_3_e_3</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2_3_ssk_2</t>
+          <t>2_3_ssk_8</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2_3_ssk_6</t>
+          <t>2_3_ssk_5</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2_3_ssk_4</t>
+          <t>2_3_ssk_7</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2_3_ssk_8</t>
+          <t>2_3_ssk_6</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
+          <t>2_3_ssk_4</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2_3_ssk_1</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
           <t>2_3_ssk_3</t>
         </is>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2_3_ssk_2</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2_3_ssk_1</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2_3_ssk_5</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2_3_ssk_2</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2_3_ssk_6</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2_3_ssk_4</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2_3_ssk_8</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2_3_ssk_3</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
         <is>
           <t>2_3_ssk_7</t>
         </is>
       </c>
-      <c r="C494" t="n">
+      <c r="C499" t="n">
         <v>39</v>
       </c>
     </row>
